--- a/MAGs_response_to_reviewers/supplemental_documents/Supplemental_Data_S2.xlsx
+++ b/MAGs_response_to_reviewers/supplemental_documents/Supplemental_Data_S2.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amlin\Desktop\MAGstravaganza\MAGs_Manuscript_2018-06-28\supplemental_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/MAGstravaganza/MAGs_response_to_reviewers/supplemental_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3607EDE4-2AD4-7743-8BE8-82E4185E8570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="13560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Supplemental_Data_S5_kdm" sheetId="1" r:id="rId1"/>
+    <sheet name="Supplemental_Data_S2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Supplemental_Data_S5_kdm!$A$1:$L$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Supplemental_Data_S2!$A$1:$M$194</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="268">
   <si>
     <t>Genome_Name</t>
   </si>
@@ -828,12 +829,15 @@
   </si>
   <si>
     <t>IMG_Genome_ID</t>
+  </si>
+  <si>
+    <t>Est_Redundancy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -890,9 +894,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1176,18 +1181,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L194"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C65" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="78.875" customWidth="1"/>
+    <col min="4" max="4" width="78.83203125" customWidth="1"/>
+    <col min="8" max="9" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>266</v>
       </c>
@@ -1209,23 +1217,26 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2582580512</v>
       </c>
@@ -1244,23 +1255,26 @@
       <c r="G2">
         <v>2684295</v>
       </c>
-      <c r="H2">
-        <v>65.53</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="2">
+        <v>65.134297520661093</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.13636363636363</v>
+      </c>
+      <c r="J2">
         <v>0.54410000000000003</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.168827</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.7230000000000001</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2450</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2582580513</v>
       </c>
@@ -1279,23 +1293,26 @@
       <c r="G3">
         <v>2093635</v>
       </c>
-      <c r="H3">
-        <v>57.05</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="2">
+        <v>56.955675351901697</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.72612921669525399</v>
+      </c>
+      <c r="J3">
         <v>0.67</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.37461100000000003</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1.67</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2111</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2582580514</v>
       </c>
@@ -1314,23 +1331,26 @@
       <c r="G4">
         <v>852268</v>
       </c>
-      <c r="H4">
-        <v>83.91</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="2">
+        <v>83.165608207132294</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.80898876404494</v>
+      </c>
+      <c r="J4">
         <v>0.39419999999999999</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.2853</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1.6359999999999999</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>895</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2582580515</v>
       </c>
@@ -1352,23 +1372,26 @@
       <c r="G5">
         <v>2631188</v>
       </c>
-      <c r="H5">
-        <v>84.01</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="2">
+        <v>83.909465020576107</v>
+      </c>
+      <c r="I5" s="2">
+        <v>7.4074074074074003</v>
+      </c>
+      <c r="J5">
         <v>0.53120000000000001</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.145344</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.7310000000000001</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2597</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2582580516</v>
       </c>
@@ -1387,23 +1410,26 @@
       <c r="G6">
         <v>2235809</v>
       </c>
-      <c r="H6">
-        <v>90.09</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="2">
+        <v>90.093240093239999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.7094017094017</v>
+      </c>
+      <c r="J6">
         <v>0.34939999999999999</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.289078</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1.653</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2076</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2582580517</v>
       </c>
@@ -1422,23 +1448,26 @@
       <c r="G7">
         <v>1782609</v>
       </c>
-      <c r="H7">
-        <v>84.14</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="2">
+        <v>84.137931034482705</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5.1724137931034404</v>
+      </c>
+      <c r="J7">
         <v>0.5383</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.184785</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1.6639999999999999</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1845</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2582580518</v>
       </c>
@@ -1457,23 +1486,26 @@
       <c r="G8">
         <v>3123153</v>
       </c>
-      <c r="H8">
-        <v>80.02</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="2">
+        <v>79.5347222222222</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3.2222222222222201</v>
+      </c>
+      <c r="J8">
         <v>0.37209999999999999</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.30515399999999998</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1.671</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2941</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2582580519</v>
       </c>
@@ -1492,23 +1524,26 @@
       <c r="G9">
         <v>1580367</v>
       </c>
-      <c r="H9">
-        <v>61.62</v>
-      </c>
-      <c r="I9">
+      <c r="H9" s="2">
+        <v>61.501836547290999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4.5454545454545396</v>
+      </c>
+      <c r="J9">
         <v>0.41239999999999999</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.20743600000000001</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1.643</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1537</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2582580520</v>
       </c>
@@ -1527,23 +1562,26 @@
       <c r="G10">
         <v>1204534</v>
       </c>
-      <c r="H10">
-        <v>66.86</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="2">
+        <v>66.856600189933502</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3.84615384615384</v>
+      </c>
+      <c r="J10">
         <v>0.59840000000000004</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.23216500000000001</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1.7130000000000001</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1337</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2582580521</v>
       </c>
@@ -1562,23 +1600,26 @@
       <c r="G11">
         <v>2103165</v>
       </c>
-      <c r="H11">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="2">
+        <v>67.857142857142804</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3.4013605442176802</v>
+      </c>
+      <c r="J11">
         <v>0.51939999999999997</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.20973600000000001</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1.6990000000000001</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2043</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2582580522</v>
       </c>
@@ -1597,23 +1638,26 @@
       <c r="G12">
         <v>3371651</v>
       </c>
-      <c r="H12">
-        <v>89.36</v>
-      </c>
-      <c r="I12">
+      <c r="H12" s="2">
+        <v>89.247311827956906</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3.76344086021505</v>
+      </c>
+      <c r="J12">
         <v>0.67179999999999995</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.38559199999999999</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1.77</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2909</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2582580523</v>
       </c>
@@ -1632,23 +1676,26 @@
       <c r="G13">
         <v>2234628</v>
       </c>
-      <c r="H13">
-        <v>82.86</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="2">
+        <v>82.739762571695294</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3.2312925170067999</v>
+      </c>
+      <c r="J13">
         <v>0.59450000000000003</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.30721100000000001</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1.6950000000000001</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2301</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2582580524</v>
       </c>
@@ -1667,23 +1714,26 @@
       <c r="G14">
         <v>1945716</v>
       </c>
-      <c r="H14">
-        <v>80.08</v>
-      </c>
-      <c r="I14">
+      <c r="H14" s="2">
+        <v>79.245005875440597</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4.5802516071058204</v>
+      </c>
+      <c r="J14">
         <v>0.67820000000000003</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.478912</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1.728</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1792</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2582580525</v>
       </c>
@@ -1702,23 +1752,26 @@
       <c r="G15">
         <v>2333569</v>
       </c>
-      <c r="H15">
-        <v>86.65</v>
-      </c>
-      <c r="I15">
+      <c r="H15" s="2">
+        <v>86.343050065876099</v>
+      </c>
+      <c r="I15" s="2">
+        <v>7.6539855072463698</v>
+      </c>
+      <c r="J15">
         <v>0.68779999999999997</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.46807300000000002</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1.7470000000000001</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2527</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2582580526</v>
       </c>
@@ -1737,23 +1790,26 @@
       <c r="G16">
         <v>3312293</v>
       </c>
-      <c r="H16">
-        <v>93.05</v>
-      </c>
-      <c r="I16">
+      <c r="H16" s="2">
+        <v>93.010752688172005</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6.7383512544802802</v>
+      </c>
+      <c r="J16">
         <v>0.60799999999999998</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.33754099999999998</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.6890000000000001</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2980</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2582580527</v>
       </c>
@@ -1772,23 +1828,26 @@
       <c r="G17">
         <v>2376430</v>
       </c>
-      <c r="H17">
-        <v>88.56</v>
-      </c>
-      <c r="I17">
+      <c r="H17" s="2">
+        <v>88.162544169611294</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5.3592461719670199</v>
+      </c>
+      <c r="J17">
         <v>0.34100000000000003</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.29796600000000001</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1.64</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2194</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2582580528</v>
       </c>
@@ -1810,23 +1869,26 @@
       <c r="G18">
         <v>911592</v>
       </c>
-      <c r="H18">
-        <v>62.71</v>
-      </c>
-      <c r="I18">
+      <c r="H18" s="2">
+        <v>62.187969924812002</v>
+      </c>
+      <c r="I18" s="2">
+        <v>6.8922305764410998</v>
+      </c>
+      <c r="J18">
         <v>0.45129999999999998</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.22270799999999999</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1.6240000000000001</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>950</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2582580529</v>
       </c>
@@ -1845,23 +1907,26 @@
       <c r="G19">
         <v>3213612</v>
       </c>
-      <c r="H19">
-        <v>70.739999999999995</v>
-      </c>
-      <c r="I19">
+      <c r="H19" s="2">
+        <v>69.818741450068401</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3.48837209302325</v>
+      </c>
+      <c r="J19">
         <v>0.51729999999999998</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.17071</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1.706</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2766</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2582580530</v>
       </c>
@@ -1880,23 +1945,26 @@
       <c r="G20">
         <v>1498931</v>
       </c>
-      <c r="H20">
-        <v>66.78</v>
-      </c>
-      <c r="I20">
+      <c r="H20" s="2">
+        <v>66.783216783216702</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.99430199430199</v>
+      </c>
+      <c r="J20">
         <v>0.50829999999999997</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.18071300000000001</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1.6739999999999999</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1599</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2582580531</v>
       </c>
@@ -1915,23 +1983,26 @@
       <c r="G21">
         <v>3309584</v>
       </c>
-      <c r="H21">
-        <v>90.79</v>
-      </c>
-      <c r="I21">
+      <c r="H21" s="2">
+        <v>89.945652173913004</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2.9891304347826</v>
+      </c>
+      <c r="J21">
         <v>0.57679999999999998</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.25817099999999998</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1.702</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>3116</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2582580532</v>
       </c>
@@ -1950,23 +2021,26 @@
       <c r="G22">
         <v>2512767</v>
       </c>
-      <c r="H22">
-        <v>87.12</v>
-      </c>
-      <c r="I22">
+      <c r="H22" s="2">
+        <v>87.027914614121499</v>
+      </c>
+      <c r="I22" s="2">
+        <v>8.7438423645320196</v>
+      </c>
+      <c r="J22">
         <v>0.44469999999999998</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.16580500000000001</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1.649</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2280</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2582580533</v>
       </c>
@@ -1985,23 +2059,26 @@
       <c r="G23">
         <v>2272733</v>
       </c>
-      <c r="H23">
-        <v>67.040000000000006</v>
-      </c>
-      <c r="I23">
+      <c r="H23" s="2">
+        <v>66.880131362889898</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.97044334975369</v>
+      </c>
+      <c r="J23">
         <v>0.46989999999999998</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.15007499999999999</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>1.669</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>2033</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2582580536</v>
       </c>
@@ -2020,23 +2097,26 @@
       <c r="G24">
         <v>4122388</v>
       </c>
-      <c r="H24">
-        <v>73.150000000000006</v>
-      </c>
-      <c r="I24">
+      <c r="H24" s="2">
+        <v>71.6608996539792</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="J24">
         <v>0.52070000000000005</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.15479499999999999</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1.724</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>3377</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2582580537</v>
       </c>
@@ -2055,23 +2135,26 @@
       <c r="G25">
         <v>4154717</v>
       </c>
-      <c r="H25">
-        <v>93.36</v>
-      </c>
-      <c r="I25">
+      <c r="H25" s="2">
+        <v>93.340611353711793</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3.4934497816593799</v>
+      </c>
+      <c r="J25">
         <v>0.39710000000000001</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.30876900000000002</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1.6659999999999999</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>3798</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2582580538</v>
       </c>
@@ -2093,23 +2176,26 @@
       <c r="G26">
         <v>3110597</v>
       </c>
-      <c r="H26">
-        <v>82.17</v>
-      </c>
-      <c r="I26">
+      <c r="H26" s="2">
+        <v>82.441700960219407</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4.6982167352537703</v>
+      </c>
+      <c r="J26">
         <v>0.63580000000000003</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.30670199999999997</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1.718</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>3077</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2582580539</v>
       </c>
@@ -2128,23 +2214,26 @@
       <c r="G27">
         <v>1793743</v>
       </c>
-      <c r="H27">
-        <v>80.69</v>
-      </c>
-      <c r="I27">
+      <c r="H27" s="2">
+        <v>80.689655172413794</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3.44827586206896</v>
+      </c>
+      <c r="J27">
         <v>0.51359999999999995</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.17758199999999999</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1.6479999999999999</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1872</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2582580540</v>
       </c>
@@ -2163,23 +2252,26 @@
       <c r="G28">
         <v>5340721</v>
       </c>
-      <c r="H28">
-        <v>95.28</v>
-      </c>
-      <c r="I28">
+      <c r="H28" s="2">
+        <v>95.224913494809599</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3.52941176470588</v>
+      </c>
+      <c r="J28">
         <v>0.52170000000000005</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.14353399999999999</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1.7290000000000001</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>4185</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2582580541</v>
       </c>
@@ -2198,23 +2290,26 @@
       <c r="G29">
         <v>1553935</v>
       </c>
-      <c r="H29">
-        <v>75.73</v>
-      </c>
-      <c r="I29">
+      <c r="H29" s="2">
+        <v>76.105637657361797</v>
+      </c>
+      <c r="I29" s="2">
+        <v>5.4351395730706002</v>
+      </c>
+      <c r="J29">
         <v>0.40660000000000002</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.18978999999999999</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1.6559999999999999</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1538</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2582580542</v>
       </c>
@@ -2233,23 +2328,26 @@
       <c r="G30">
         <v>2122990</v>
       </c>
-      <c r="H30">
-        <v>53.34</v>
-      </c>
-      <c r="I30">
+      <c r="H30" s="2">
+        <v>53.955375253549697</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1.35841170323928</v>
+      </c>
+      <c r="J30">
         <v>0.68810000000000004</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.427813</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.722</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1951</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2582580543</v>
       </c>
@@ -2268,23 +2366,26 @@
       <c r="G31">
         <v>1798465</v>
       </c>
-      <c r="H31">
-        <v>68.819999999999993</v>
-      </c>
-      <c r="I31">
+      <c r="H31" s="2">
+        <v>68.651026392961796</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3.76344086021505</v>
+      </c>
+      <c r="J31">
         <v>0.4138</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.18492900000000001</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.6259999999999999</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1721</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2582580544</v>
       </c>
@@ -2303,23 +2404,26 @@
       <c r="G32">
         <v>2350389</v>
       </c>
-      <c r="H32">
-        <v>90.6</v>
-      </c>
-      <c r="I32">
+      <c r="H32" s="2">
+        <v>90.598290598290603</v>
+      </c>
+      <c r="I32" s="2">
+        <v>9.1168091168091099</v>
+      </c>
+      <c r="J32">
         <v>0.67310000000000003</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.34318199999999999</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>1.657</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>2337</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2582580545</v>
       </c>
@@ -2338,23 +2442,26 @@
       <c r="G33">
         <v>1439254</v>
       </c>
-      <c r="H33">
-        <v>65.34</v>
-      </c>
-      <c r="I33">
+      <c r="H33" s="2">
+        <v>64.608378870673903</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1.91256830601092</v>
+      </c>
+      <c r="J33">
         <v>0.54179999999999995</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.20533899999999999</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>1.6950000000000001</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>1419</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2582580546</v>
       </c>
@@ -2373,23 +2480,26 @@
       <c r="G34">
         <v>1851081</v>
       </c>
-      <c r="H34">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="I34">
+      <c r="H34" s="2">
+        <v>79.888712241653394</v>
+      </c>
+      <c r="I34" s="2">
+        <v>5.4054054054053999</v>
+      </c>
+      <c r="J34">
         <v>0.6573</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.455841</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>1.718</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1670</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2582580547</v>
       </c>
@@ -2408,23 +2518,26 @@
       <c r="G35">
         <v>4364939</v>
       </c>
-      <c r="H35">
-        <v>72.12</v>
-      </c>
-      <c r="I35">
+      <c r="H35" s="2">
+        <v>72.950089126559703</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1.14942528735632</v>
+      </c>
+      <c r="J35">
         <v>0.65820000000000001</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.32296399999999997</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>1.768</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>3215</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2582580548</v>
       </c>
@@ -2443,23 +2556,26 @@
       <c r="G36">
         <v>2326823</v>
       </c>
-      <c r="H36">
-        <v>90.52</v>
-      </c>
-      <c r="I36">
+      <c r="H36" s="2">
+        <v>90.476190476190396</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2.3152709359605899</v>
+      </c>
+      <c r="J36">
         <v>0.41349999999999998</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.16182299999999999</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>1.6519999999999999</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>2084</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2582580549</v>
       </c>
@@ -2478,23 +2594,26 @@
       <c r="G37">
         <v>2610574</v>
       </c>
-      <c r="H37">
-        <v>86.14</v>
-      </c>
-      <c r="I37">
+      <c r="H37" s="2">
+        <v>85.035335689045894</v>
+      </c>
+      <c r="I37" s="2">
+        <v>7.0671378091872699</v>
+      </c>
+      <c r="J37">
         <v>0.33150000000000002</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.31547599999999998</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>1.617</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>2471</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2582580550</v>
       </c>
@@ -2516,23 +2635,26 @@
       <c r="G38">
         <v>1366118</v>
       </c>
-      <c r="H38">
-        <v>76.72</v>
-      </c>
-      <c r="I38">
+      <c r="H38" s="2">
+        <v>75</v>
+      </c>
+      <c r="I38" s="2">
+        <v>8.6206896551724093</v>
+      </c>
+      <c r="J38">
         <v>0.47089999999999999</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.188416</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>1.625</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>1385</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2582580551</v>
       </c>
@@ -2551,23 +2673,26 @@
       <c r="G39">
         <v>3350202</v>
       </c>
-      <c r="H39">
-        <v>87.92</v>
-      </c>
-      <c r="I39">
+      <c r="H39" s="2">
+        <v>87.6132246376811</v>
+      </c>
+      <c r="I39" s="2">
+        <v>5.01893939393939</v>
+      </c>
+      <c r="J39">
         <v>0.65139999999999998</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.36830499999999999</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>1.7470000000000001</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>3378</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2582580552</v>
       </c>
@@ -2586,23 +2711,26 @@
       <c r="G40">
         <v>4193130</v>
       </c>
-      <c r="H40">
-        <v>81.55</v>
-      </c>
-      <c r="I40">
+      <c r="H40" s="2">
+        <v>81.063500727801994</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1.9650655021834</v>
+      </c>
+      <c r="J40">
         <v>0.41970000000000002</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>0.26994299999999999</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>1.677</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>4197</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2582580553</v>
       </c>
@@ -2621,23 +2749,26 @@
       <c r="G41">
         <v>1050638</v>
       </c>
-      <c r="H41">
-        <v>65.739999999999995</v>
-      </c>
-      <c r="I41">
+      <c r="H41" s="2">
+        <v>65.741811175337105</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.57803468208092401</v>
+      </c>
+      <c r="J41">
         <v>0.46310000000000001</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>0.20157</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>1.603</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>1014</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2582580554</v>
       </c>
@@ -2656,23 +2787,26 @@
       <c r="G42">
         <v>1671027</v>
       </c>
-      <c r="H42">
-        <v>71</v>
-      </c>
-      <c r="I42">
+      <c r="H42" s="2">
+        <v>69.278996865203695</v>
+      </c>
+      <c r="I42" s="2">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="J42">
         <v>0.53569999999999995</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>0.19039300000000001</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>1.6519999999999999</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>1725</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2582580555</v>
       </c>
@@ -2694,23 +2828,26 @@
       <c r="G43">
         <v>734855</v>
       </c>
-      <c r="H43">
-        <v>59.7</v>
-      </c>
-      <c r="I43">
+      <c r="H43" s="2">
+        <v>59.102756892230502</v>
+      </c>
+      <c r="I43" s="2">
+        <v>3.2456140350877098</v>
+      </c>
+      <c r="J43">
         <v>0.39779999999999999</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>0.25521199999999999</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>1.62</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>785</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2582580556</v>
       </c>
@@ -2729,23 +2866,26 @@
       <c r="G44">
         <v>2829293</v>
       </c>
-      <c r="H44">
-        <v>80.42</v>
-      </c>
-      <c r="I44">
+      <c r="H44" s="2">
+        <v>79.927849927849905</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3.0826417704011</v>
+      </c>
+      <c r="J44">
         <v>0.63549999999999995</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>0.36780200000000002</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>1.7150000000000001</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>2933</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2582580557</v>
       </c>
@@ -2764,23 +2904,26 @@
       <c r="G45">
         <v>860016</v>
       </c>
-      <c r="H45">
-        <v>56.27</v>
-      </c>
-      <c r="I45">
+      <c r="H45" s="2">
+        <v>50.842087912087898</v>
+      </c>
+      <c r="I45" s="2">
+        <v>4.9133333333333304</v>
+      </c>
+      <c r="J45">
         <v>0.46429999999999999</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>0.17900199999999999</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>1.6839999999999999</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>917</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2582580558</v>
       </c>
@@ -2799,23 +2942,26 @@
       <c r="G46">
         <v>4006763</v>
       </c>
-      <c r="H46">
-        <v>68.13</v>
-      </c>
-      <c r="I46">
+      <c r="H46" s="2">
+        <v>67.757785467128002</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2.3529411764705799</v>
+      </c>
+      <c r="J46">
         <v>0.55249999999999999</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>0.189079</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>1.726</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>3083</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2582580559</v>
       </c>
@@ -2834,23 +2980,26 @@
       <c r="G47">
         <v>1236889</v>
       </c>
-      <c r="H47">
-        <v>55.47</v>
-      </c>
-      <c r="I47">
+      <c r="H47" s="2">
+        <v>55.675675675675599</v>
+      </c>
+      <c r="I47" s="2">
+        <v>4.2026681412870603</v>
+      </c>
+      <c r="J47">
         <v>0.62509999999999999</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>0.29345900000000003</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>1.7350000000000001</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>1139</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2582580560</v>
       </c>
@@ -2869,23 +3018,26 @@
       <c r="G48">
         <v>4808660</v>
       </c>
-      <c r="H48">
-        <v>94.12</v>
-      </c>
-      <c r="I48">
+      <c r="H48" s="2">
+        <v>94.048442906574394</v>
+      </c>
+      <c r="I48" s="2">
+        <v>4.7058823529411704</v>
+      </c>
+      <c r="J48">
         <v>0.52500000000000002</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>0.15157999999999999</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>1.722</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>3762</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2582580561</v>
       </c>
@@ -2907,23 +3059,26 @@
       <c r="G49">
         <v>1320940</v>
       </c>
-      <c r="H49">
-        <v>68.97</v>
-      </c>
-      <c r="I49">
+      <c r="H49" s="2">
+        <v>68.965517241379303</v>
+      </c>
+      <c r="I49" s="2">
+        <v>3.44827586206896</v>
+      </c>
+      <c r="J49">
         <v>0.4975</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>0.23560600000000001</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>1.653</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>1348</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2582580562</v>
       </c>
@@ -2942,23 +3097,26 @@
       <c r="G50">
         <v>1047154</v>
       </c>
-      <c r="H50">
-        <v>54.86</v>
-      </c>
-      <c r="I50">
+      <c r="H50" s="2">
+        <v>54.858934169279003</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>0.34649999999999997</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>0.29659000000000002</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>1.643</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>1165</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2582580563</v>
       </c>
@@ -2977,23 +3135,26 @@
       <c r="G51">
         <v>1783923</v>
       </c>
-      <c r="H51">
-        <v>78.989999999999995</v>
-      </c>
-      <c r="I51">
+      <c r="H51" s="2">
+        <v>78.883415435139497</v>
+      </c>
+      <c r="I51" s="2">
+        <v>6.2725779967159196</v>
+      </c>
+      <c r="J51">
         <v>0.31080000000000002</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>0.358626</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>1.641</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>1718</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2582580564</v>
       </c>
@@ -3012,23 +3173,26 @@
       <c r="G52">
         <v>1072419</v>
       </c>
-      <c r="H52">
-        <v>71.12</v>
-      </c>
-      <c r="I52">
+      <c r="H52" s="2">
+        <v>71.120689655172399</v>
+      </c>
+      <c r="I52" s="2">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="J52">
         <v>0.4375</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>0.21254000000000001</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>1.629</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>1112</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2582580565</v>
       </c>
@@ -3047,23 +3211,26 @@
       <c r="G53">
         <v>1785483</v>
       </c>
-      <c r="H53">
-        <v>73.790000000000006</v>
-      </c>
-      <c r="I53">
+      <c r="H53" s="2">
+        <v>73.789173789173702</v>
+      </c>
+      <c r="I53" s="2">
+        <v>5.1282051282051198</v>
+      </c>
+      <c r="J53">
         <v>0.52390000000000003</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>0.18897700000000001</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>1.6579999999999999</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>1898</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2582580566</v>
       </c>
@@ -3082,23 +3249,26 @@
       <c r="G54">
         <v>2331128</v>
       </c>
-      <c r="H54">
-        <v>77.19</v>
-      </c>
-      <c r="I54">
+      <c r="H54" s="2">
+        <v>77.1929824561403</v>
+      </c>
+      <c r="I54" s="2">
+        <v>5.2631578947368398</v>
+      </c>
+      <c r="J54">
         <v>0.40189999999999998</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>0.27990399999999999</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>1.6539999999999999</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>2261</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2582580567</v>
       </c>
@@ -3117,23 +3287,26 @@
       <c r="G55">
         <v>2003587</v>
       </c>
-      <c r="H55">
-        <v>64.47</v>
-      </c>
-      <c r="I55">
+      <c r="H55" s="2">
+        <v>63.613425925925903</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="J55">
         <v>0.39550000000000002</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>0.23555000000000001</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>1.681</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>2054</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2582580568</v>
       </c>
@@ -3152,23 +3325,26 @@
       <c r="G56">
         <v>2923340</v>
       </c>
-      <c r="H56">
-        <v>86.01</v>
-      </c>
-      <c r="I56">
+      <c r="H56" s="2">
+        <v>85.931899641577004</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1.25448028673835</v>
+      </c>
+      <c r="J56">
         <v>0.44009999999999999</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>0.16042600000000001</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>1.625</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>2531</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2582580569</v>
       </c>
@@ -3187,23 +3363,26 @@
       <c r="G57">
         <v>3284619</v>
       </c>
-      <c r="H57">
-        <v>51.3</v>
-      </c>
-      <c r="I57">
+      <c r="H57" s="2">
+        <v>51.885330578512303</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1.6164316966456</v>
+      </c>
+      <c r="J57">
         <v>0.43440000000000001</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>0.19919000000000001</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>1.66</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>2827</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2582580570</v>
       </c>
@@ -3222,23 +3401,26 @@
       <c r="G58">
         <v>1017159</v>
       </c>
-      <c r="H58">
-        <v>74.47</v>
-      </c>
-      <c r="I58">
+      <c r="H58" s="2">
+        <v>74.193548387096698</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58">
         <v>0.3861</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>0.26674799999999999</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>1.659</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>1224</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2582580571</v>
       </c>
@@ -3257,23 +3439,26 @@
       <c r="G59">
         <v>1740562</v>
       </c>
-      <c r="H59">
-        <v>79.38</v>
-      </c>
-      <c r="I59">
+      <c r="H59" s="2">
+        <v>79.285714285714207</v>
+      </c>
+      <c r="I59" s="2">
+        <v>6.9523809523809499</v>
+      </c>
+      <c r="J59">
         <v>0.4582</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>0.19423399999999999</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>1.6559999999999999</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>1551</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2582580572</v>
       </c>
@@ -3295,23 +3480,26 @@
       <c r="G60">
         <v>786155</v>
       </c>
-      <c r="H60">
-        <v>55.44</v>
-      </c>
-      <c r="I60">
+      <c r="H60" s="2">
+        <v>55.094043887147301</v>
+      </c>
+      <c r="I60" s="2">
+        <v>3.44827586206896</v>
+      </c>
+      <c r="J60">
         <v>0.48020000000000002</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>0.18293400000000001</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>1.6539999999999999</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>818</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2582580573</v>
       </c>
@@ -3330,23 +3518,26 @@
       <c r="G61">
         <v>1581403</v>
       </c>
-      <c r="H61">
-        <v>72.84</v>
-      </c>
-      <c r="I61">
+      <c r="H61" s="2">
+        <v>72.428275658089305</v>
+      </c>
+      <c r="I61" s="2">
+        <v>3.62811791383219</v>
+      </c>
+      <c r="J61">
         <v>0.58140000000000003</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>0.283999</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>1.724</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>1558</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2582580575</v>
       </c>
@@ -3368,23 +3559,26 @@
       <c r="G62">
         <v>1144269</v>
       </c>
-      <c r="H62">
-        <v>69.31</v>
-      </c>
-      <c r="I62">
+      <c r="H62" s="2">
+        <v>68.725490196078397</v>
+      </c>
+      <c r="I62" s="2">
+        <v>4.9019607843137196</v>
+      </c>
+      <c r="J62">
         <v>0.44879999999999998</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>0.199156</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>1.615</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>1180</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2582580576</v>
       </c>
@@ -3403,23 +3597,26 @@
       <c r="G63">
         <v>2772794</v>
       </c>
-      <c r="H63">
-        <v>92.14</v>
-      </c>
-      <c r="I63">
+      <c r="H63" s="2">
+        <v>92.119565217391298</v>
+      </c>
+      <c r="I63" s="2">
+        <v>6.7481884057970998</v>
+      </c>
+      <c r="J63">
         <v>0.64049999999999996</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>0.32123699999999999</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>1.7370000000000001</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>2887</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2582580577</v>
       </c>
@@ -3438,23 +3635,26 @@
       <c r="G64">
         <v>2819350</v>
       </c>
-      <c r="H64">
-        <v>94.63</v>
-      </c>
-      <c r="I64">
+      <c r="H64" s="2">
+        <v>94.474637681159393</v>
+      </c>
+      <c r="I64" s="2">
+        <v>3.8043478260869499</v>
+      </c>
+      <c r="J64">
         <v>0.67559999999999998</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>0.43352099999999999</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>1.7629999999999999</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>3018</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2582580578</v>
       </c>
@@ -3473,23 +3673,26 @@
       <c r="G65">
         <v>4653018</v>
       </c>
-      <c r="H65">
-        <v>85.81</v>
-      </c>
-      <c r="I65">
+      <c r="H65" s="2">
+        <v>85.640138408304495</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0.80213903743315496</v>
+      </c>
+      <c r="J65">
         <v>0.52080000000000004</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>0.16753000000000001</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>1.718</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>3570</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2582580579</v>
       </c>
@@ -3508,23 +3711,26 @@
       <c r="G66">
         <v>733334</v>
       </c>
-      <c r="H66">
-        <v>80.88</v>
-      </c>
-      <c r="I66">
+      <c r="H66" s="2">
+        <v>80.877742946708395</v>
+      </c>
+      <c r="I66" s="2">
+        <v>4.3103448275862002</v>
+      </c>
+      <c r="J66">
         <v>0.31979999999999997</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>0.33740900000000001</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>1.6379999999999999</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>743</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2582580580</v>
       </c>
@@ -3543,23 +3749,26 @@
       <c r="G67">
         <v>1284389</v>
       </c>
-      <c r="H67">
-        <v>60.27</v>
-      </c>
-      <c r="I67">
+      <c r="H67" s="2">
+        <v>58.961748633879701</v>
+      </c>
+      <c r="I67" s="2">
+        <v>2.7322404371584699</v>
+      </c>
+      <c r="J67">
         <v>0.43369999999999997</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>0.192021</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>1.645</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>1191</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2582580581</v>
       </c>
@@ -3578,23 +3787,26 @@
       <c r="G68">
         <v>1691699</v>
       </c>
-      <c r="H68">
-        <v>67.67</v>
-      </c>
-      <c r="I68">
+      <c r="H68" s="2">
+        <v>67.170868347338896</v>
+      </c>
+      <c r="I68" s="2">
+        <v>7.9806598407280998</v>
+      </c>
+      <c r="J68">
         <v>0.55800000000000005</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>0.205259</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>1.673</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>1805</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2582580582</v>
       </c>
@@ -3613,23 +3825,26 @@
       <c r="G69">
         <v>1533163</v>
       </c>
-      <c r="H69">
-        <v>81.61</v>
-      </c>
-      <c r="I69">
+      <c r="H69" s="2">
+        <v>81.518518518518505</v>
+      </c>
+      <c r="I69" s="2">
+        <v>2.5396825396825302</v>
+      </c>
+      <c r="J69">
         <v>0.53139999999999998</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>0.197542</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>1.738</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>1417</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2582580583</v>
       </c>
@@ -3648,23 +3863,26 @@
       <c r="G70">
         <v>2085652</v>
       </c>
-      <c r="H70">
-        <v>77.23</v>
-      </c>
-      <c r="I70">
+      <c r="H70" s="2">
+        <v>77.103825136612002</v>
+      </c>
+      <c r="I70" s="2">
+        <v>2.1857923497267699</v>
+      </c>
+      <c r="J70">
         <v>0.43190000000000001</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>0.18282699999999999</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>1.6539999999999999</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>1888</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2582580584</v>
       </c>
@@ -3683,23 +3901,26 @@
       <c r="G71">
         <v>4099996</v>
       </c>
-      <c r="H71">
-        <v>83.22</v>
-      </c>
-      <c r="I71">
+      <c r="H71" s="2">
+        <v>82.962962962962905</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1.8958333333333299</v>
+      </c>
+      <c r="J71">
         <v>0.3805</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>0.304923</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>1.669</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>3951</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2582580585</v>
       </c>
@@ -3718,23 +3939,26 @@
       <c r="G72">
         <v>2257317</v>
       </c>
-      <c r="H72">
-        <v>60.66</v>
-      </c>
-      <c r="I72">
+      <c r="H72" s="2">
+        <v>59.9579124579124</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1.2626262626262601</v>
+      </c>
+      <c r="J72">
         <v>0.37040000000000001</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>0.22936000000000001</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>1.6339999999999999</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>1989</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2582580586</v>
       </c>
@@ -3753,23 +3977,26 @@
       <c r="G73">
         <v>2170171</v>
       </c>
-      <c r="H73">
-        <v>66.790000000000006</v>
-      </c>
-      <c r="I73">
+      <c r="H73" s="2">
+        <v>66.142857142857096</v>
+      </c>
+      <c r="I73" s="2">
+        <v>5.9523809523809499</v>
+      </c>
+      <c r="J73">
         <v>0.33579999999999999</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>0.292296</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>1.619</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>2128</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2582580587</v>
       </c>
@@ -3788,23 +4015,26 @@
       <c r="G74">
         <v>1297462</v>
       </c>
-      <c r="H74">
-        <v>53.36</v>
-      </c>
-      <c r="I74">
+      <c r="H74" s="2">
+        <v>53.128078817733901</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1.47783251231527</v>
+      </c>
+      <c r="J74">
         <v>0.33069999999999999</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>0.32174799999999998</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>1.6279999999999999</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>1327</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2582580588</v>
       </c>
@@ -3823,23 +4053,26 @@
       <c r="G75">
         <v>2908334</v>
       </c>
-      <c r="H75">
-        <v>88.48</v>
-      </c>
-      <c r="I75">
+      <c r="H75" s="2">
+        <v>88.423645320196997</v>
+      </c>
+      <c r="I75" s="2">
+        <v>9.3596059113300498</v>
+      </c>
+      <c r="J75">
         <v>0.40400000000000003</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>0.227439</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>1.667</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>2619</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2582580589</v>
       </c>
@@ -3858,23 +4091,26 @@
       <c r="G76">
         <v>2930247</v>
       </c>
-      <c r="H76">
-        <v>90.14</v>
-      </c>
-      <c r="I76">
+      <c r="H76" s="2">
+        <v>90.093048713738298</v>
+      </c>
+      <c r="I76" s="2">
+        <v>5.50082101806239</v>
+      </c>
+      <c r="J76">
         <v>0.41830000000000001</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>0.206264</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>1.657</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>2632</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2582580590</v>
       </c>
@@ -3893,23 +4129,26 @@
       <c r="G77">
         <v>1331396</v>
       </c>
-      <c r="H77">
-        <v>50.25</v>
-      </c>
-      <c r="I77">
+      <c r="H77" s="2">
+        <v>49.729064039408797</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0.49261083743842299</v>
+      </c>
+      <c r="J77">
         <v>0.31190000000000001</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>0.35600900000000002</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>1.621</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>1365</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2582580591</v>
       </c>
@@ -3928,23 +4167,26 @@
       <c r="G78">
         <v>1913277</v>
       </c>
-      <c r="H78">
-        <v>84.53</v>
-      </c>
-      <c r="I78">
+      <c r="H78" s="2">
+        <v>84.529914529914507</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78">
         <v>0.35830000000000001</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>0.25074099999999999</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>1.645</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>1782</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2582580592</v>
       </c>
@@ -3963,23 +4205,26 @@
       <c r="G79">
         <v>2716659</v>
       </c>
-      <c r="H79">
-        <v>95.87</v>
-      </c>
-      <c r="I79">
+      <c r="H79" s="2">
+        <v>95.145992188952903</v>
+      </c>
+      <c r="I79" s="2">
+        <v>3.7396937573616</v>
+      </c>
+      <c r="J79">
         <v>0.33560000000000001</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>0.31637999999999999</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>1.6160000000000001</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>2551</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2582580593</v>
       </c>
@@ -3998,23 +4243,26 @@
       <c r="G80">
         <v>2354802</v>
       </c>
-      <c r="H80">
-        <v>64.569999999999993</v>
-      </c>
-      <c r="I80">
+      <c r="H80" s="2">
+        <v>63.307699891550797</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80">
         <v>0.56730000000000003</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>0.214092</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>1.72</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>2193</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2582580594</v>
       </c>
@@ -4033,23 +4281,26 @@
       <c r="G81">
         <v>2759591</v>
       </c>
-      <c r="H81">
-        <v>88.26</v>
-      </c>
-      <c r="I81">
+      <c r="H81" s="2">
+        <v>88.175675675675606</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1.57657657657657</v>
+      </c>
+      <c r="J81">
         <v>0.40489999999999998</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>0.20791200000000001</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>1.6850000000000001</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>2534</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2582580595</v>
       </c>
@@ -4068,23 +4319,26 @@
       <c r="G82">
         <v>906713</v>
       </c>
-      <c r="H82">
-        <v>58.68</v>
-      </c>
-      <c r="I82">
+      <c r="H82" s="2">
+        <v>58.138996138996099</v>
+      </c>
+      <c r="I82" s="2">
+        <v>2.3423423423423402</v>
+      </c>
+      <c r="J82">
         <v>0.43959999999999999</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>0.22480600000000001</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>1.6240000000000001</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>960</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2582580596</v>
       </c>
@@ -4103,23 +4357,26 @@
       <c r="G83">
         <v>2325963</v>
       </c>
-      <c r="H83">
-        <v>87.65</v>
-      </c>
-      <c r="I83">
+      <c r="H83" s="2">
+        <v>87.586206896551701</v>
+      </c>
+      <c r="I83" s="2">
+        <v>4.0804597701149401</v>
+      </c>
+      <c r="J83">
         <v>0.35670000000000002</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>0.27149000000000001</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>1.635</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>2054</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2582580597</v>
       </c>
@@ -4138,23 +4395,26 @@
       <c r="G84">
         <v>1868933</v>
       </c>
-      <c r="H84">
-        <v>65.14</v>
-      </c>
-      <c r="I84">
+      <c r="H84" s="2">
+        <v>63.816543816543799</v>
+      </c>
+      <c r="I84" s="2">
+        <v>1.35135135135135</v>
+      </c>
+      <c r="J84">
         <v>0.40310000000000001</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>0.21870700000000001</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>1.6419999999999999</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>1853</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2582580598</v>
       </c>
@@ -4176,23 +4436,26 @@
       <c r="G85">
         <v>593228</v>
       </c>
-      <c r="H85">
-        <v>50.67</v>
-      </c>
-      <c r="I85">
+      <c r="H85" s="2">
+        <v>50.033535817849497</v>
+      </c>
+      <c r="I85" s="2">
+        <v>3.1593406593406499</v>
+      </c>
+      <c r="J85">
         <v>0.36890000000000001</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>0.27709299999999998</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>1.6579999999999999</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>705</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2582580599</v>
       </c>
@@ -4211,23 +4474,26 @@
       <c r="G86">
         <v>3400639</v>
       </c>
-      <c r="H86">
-        <v>89.34</v>
-      </c>
-      <c r="I86">
+      <c r="H86" s="2">
+        <v>89.047619047618994</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1.0317460317460301</v>
+      </c>
+      <c r="J86">
         <v>0.34</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>0.260133</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>1.625</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>2971</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2582580600</v>
       </c>
@@ -4246,23 +4512,26 @@
       <c r="G87">
         <v>2550905</v>
       </c>
-      <c r="H87">
-        <v>88.2</v>
-      </c>
-      <c r="I87">
+      <c r="H87" s="2">
+        <v>88.142245215843303</v>
+      </c>
+      <c r="I87" s="2">
+        <v>5.9267912772585598</v>
+      </c>
+      <c r="J87">
         <v>0.65639999999999998</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>0.36654399999999998</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>1.7470000000000001</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>2430</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2582580601</v>
       </c>
@@ -4281,23 +4550,26 @@
       <c r="G88">
         <v>2736634</v>
       </c>
-      <c r="H88">
-        <v>74.87</v>
-      </c>
-      <c r="I88">
+      <c r="H88" s="2">
+        <v>74.745484400656807</v>
+      </c>
+      <c r="I88" s="2">
+        <v>5.7389162561576299</v>
+      </c>
+      <c r="J88">
         <v>0.46939999999999998</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>0.164579</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>1.667</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>2686</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2582580602</v>
       </c>
@@ -4316,23 +4588,26 @@
       <c r="G89">
         <v>1284442</v>
       </c>
-      <c r="H89">
-        <v>58.88</v>
-      </c>
-      <c r="I89">
+      <c r="H89" s="2">
+        <v>57.936117936117903</v>
+      </c>
+      <c r="I89" s="2">
+        <v>3.2432432432432399</v>
+      </c>
+      <c r="J89">
         <v>0.3931</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>0.22334899999999999</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>1.6419999999999999</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>1346</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2582580603</v>
       </c>
@@ -4351,23 +4626,26 @@
       <c r="G90">
         <v>3659184</v>
       </c>
-      <c r="H90">
-        <v>87.49</v>
-      </c>
-      <c r="I90">
+      <c r="H90" s="2">
+        <v>87.450396825396794</v>
+      </c>
+      <c r="I90" s="2">
+        <v>6.4583333333333304</v>
+      </c>
+      <c r="J90">
         <v>0.41749999999999998</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>0.18706300000000001</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>1.6559999999999999</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>3615</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2582580605</v>
       </c>
@@ -4386,23 +4664,26 @@
       <c r="G91">
         <v>1813804</v>
       </c>
-      <c r="H91">
-        <v>86.27</v>
-      </c>
-      <c r="I91">
+      <c r="H91" s="2">
+        <v>86.2068965517241</v>
+      </c>
+      <c r="I91" s="2">
+        <v>11.8226600985221</v>
+      </c>
+      <c r="J91">
         <v>0.48480000000000001</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>0.154283</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>1.6779999999999999</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>1651</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2582580606</v>
       </c>
@@ -4421,23 +4702,26 @@
       <c r="G92">
         <v>2973502</v>
       </c>
-      <c r="H92">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="I92">
+      <c r="H92" s="2">
+        <v>80.172413793103402</v>
+      </c>
+      <c r="I92" s="2">
+        <v>1.14942528735632</v>
+      </c>
+      <c r="J92">
         <v>0.70669999999999999</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>0.453905</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>1.7470000000000001</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>2596</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2582580607</v>
       </c>
@@ -4456,23 +4740,26 @@
       <c r="G93">
         <v>3551150</v>
       </c>
-      <c r="H93">
-        <v>84.72</v>
-      </c>
-      <c r="I93">
+      <c r="H93" s="2">
+        <v>84.588632750397394</v>
+      </c>
+      <c r="I93" s="2">
+        <v>5.0675675675675604</v>
+      </c>
+      <c r="J93">
         <v>0.63300000000000001</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>0.36166599999999999</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>1.73</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>3410</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2582580608</v>
       </c>
@@ -4494,23 +4781,26 @@
       <c r="G94">
         <v>866493</v>
       </c>
-      <c r="H94">
-        <v>61.64</v>
-      </c>
-      <c r="I94">
+      <c r="H94" s="2">
+        <v>61.637931034482698</v>
+      </c>
+      <c r="I94" s="2">
+        <v>5.1724137931034404</v>
+      </c>
+      <c r="J94">
         <v>0.4425</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>0.208092</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>1.6339999999999999</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>886</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2582580609</v>
       </c>
@@ -4529,23 +4819,26 @@
       <c r="G95">
         <v>2143680</v>
       </c>
-      <c r="H95">
-        <v>84.6</v>
-      </c>
-      <c r="I95">
+      <c r="H95" s="2">
+        <v>84.452244363929097</v>
+      </c>
+      <c r="I95" s="2">
+        <v>7.6942431561996703</v>
+      </c>
+      <c r="J95">
         <v>0.5988</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>0.225246</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>1.7450000000000001</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>2069</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2582580610</v>
       </c>
@@ -4564,23 +4857,26 @@
       <c r="G96">
         <v>2074546</v>
       </c>
-      <c r="H96">
-        <v>89.62</v>
-      </c>
-      <c r="I96">
+      <c r="H96" s="2">
+        <v>89.080459770114899</v>
+      </c>
+      <c r="I96" s="2">
+        <v>7.8817733990147696</v>
+      </c>
+      <c r="J96">
         <v>0.36459999999999998</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>0.206451</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>1.635</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>1856</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2582580611</v>
       </c>
@@ -4599,23 +4895,26 @@
       <c r="G97">
         <v>5467700</v>
       </c>
-      <c r="H97">
-        <v>98.7</v>
-      </c>
-      <c r="I97">
+      <c r="H97" s="2">
+        <v>98.685121107266397</v>
+      </c>
+      <c r="I97" s="2">
+        <v>2.3529411764705799</v>
+      </c>
+      <c r="J97">
         <v>0.57969999999999999</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>0.19187899999999999</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>1.758</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>3984</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2582580612</v>
       </c>
@@ -4634,23 +4933,26 @@
       <c r="G98">
         <v>799895</v>
       </c>
-      <c r="H98">
-        <v>68.12</v>
-      </c>
-      <c r="I98">
+      <c r="H98" s="2">
+        <v>67.757694186614501</v>
+      </c>
+      <c r="I98" s="2">
+        <v>1.1235955056179701</v>
+      </c>
+      <c r="J98">
         <v>0.3755</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>0.29044500000000001</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>1.6279999999999999</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>810</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2582580613</v>
       </c>
@@ -4669,23 +4971,26 @@
       <c r="G99">
         <v>2153459</v>
       </c>
-      <c r="H99">
-        <v>79.94</v>
-      </c>
-      <c r="I99">
+      <c r="H99" s="2">
+        <v>79.841269841269806</v>
+      </c>
+      <c r="I99" s="2">
+        <v>4.4444444444444402</v>
+      </c>
+      <c r="J99">
         <v>0.36870000000000003</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>0.24943399999999999</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>1.6359999999999999</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>1913</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2582580614</v>
       </c>
@@ -4704,23 +5009,26 @@
       <c r="G100">
         <v>2317383</v>
       </c>
-      <c r="H100">
-        <v>91.47</v>
-      </c>
-      <c r="I100">
+      <c r="H100" s="2">
+        <v>91.921182266009794</v>
+      </c>
+      <c r="I100" s="2">
+        <v>4.4334975369458096</v>
+      </c>
+      <c r="J100">
         <v>0.38119999999999998</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>0.20977399999999999</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>1.64</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>2111</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2582580615</v>
       </c>
@@ -4739,23 +5047,26 @@
       <c r="G101">
         <v>2573146</v>
       </c>
-      <c r="H101">
-        <v>74.56</v>
-      </c>
-      <c r="I101">
+      <c r="H101" s="2">
+        <v>73.684210526315795</v>
+      </c>
+      <c r="I101" s="2">
+        <v>3.5087719298245599</v>
+      </c>
+      <c r="J101">
         <v>0.39779999999999999</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>0.259046</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <v>1.651</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>2391</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2582580616</v>
       </c>
@@ -4774,23 +5085,26 @@
       <c r="G102">
         <v>2036179</v>
       </c>
-      <c r="H102">
-        <v>95.3</v>
-      </c>
-      <c r="I102">
+      <c r="H102" s="2">
+        <v>95.270270270270203</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+      <c r="J102">
         <v>0.54490000000000005</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>0.21815899999999999</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>1.71</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>1896</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2582580617</v>
       </c>
@@ -4809,23 +5123,26 @@
       <c r="G103">
         <v>764032</v>
       </c>
-      <c r="H103">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="I103">
+      <c r="H103" s="2">
+        <v>64.102564102564102</v>
+      </c>
+      <c r="I103" s="2">
+        <v>1.7094017094017</v>
+      </c>
+      <c r="J103">
         <v>0.55010000000000003</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>0.200514</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <v>1.649</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>895</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2582580620</v>
       </c>
@@ -4847,23 +5164,26 @@
       <c r="G104">
         <v>1458458</v>
       </c>
-      <c r="H104">
-        <v>66.38</v>
-      </c>
-      <c r="I104">
+      <c r="H104" s="2">
+        <v>66.379310344827502</v>
+      </c>
+      <c r="I104" s="2">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="J104">
         <v>0.45</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>0.18232300000000001</v>
       </c>
-      <c r="K104">
+      <c r="L104">
         <v>1.657</v>
       </c>
-      <c r="L104">
+      <c r="M104">
         <v>1490</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2582580621</v>
       </c>
@@ -4885,23 +5205,26 @@
       <c r="G105">
         <v>2210814</v>
       </c>
-      <c r="H105">
-        <v>78.62</v>
-      </c>
-      <c r="I105">
+      <c r="H105" s="2">
+        <v>78.620689655172399</v>
+      </c>
+      <c r="I105" s="2">
+        <v>0</v>
+      </c>
+      <c r="J105">
         <v>0.44280000000000003</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>0.18858800000000001</v>
       </c>
-      <c r="K105">
+      <c r="L105">
         <v>1.6519999999999999</v>
       </c>
-      <c r="L105">
+      <c r="M105">
         <v>2215</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2582580622</v>
       </c>
@@ -4920,23 +5243,26 @@
       <c r="G106">
         <v>2469065</v>
       </c>
-      <c r="H106">
-        <v>93.99</v>
-      </c>
-      <c r="I106">
+      <c r="H106" s="2">
+        <v>93.956043956043899</v>
+      </c>
+      <c r="I106" s="2">
+        <v>1.0989010989010899</v>
+      </c>
+      <c r="J106">
         <v>0.4592</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>0.18351500000000001</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <v>1.669</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <v>2365</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2582580623</v>
       </c>
@@ -4958,23 +5284,26 @@
       <c r="G107">
         <v>1423270</v>
       </c>
-      <c r="H107">
-        <v>87.89</v>
-      </c>
-      <c r="I107">
+      <c r="H107" s="2">
+        <v>87.624643874643795</v>
+      </c>
+      <c r="I107" s="2">
+        <v>1.9482151835093</v>
+      </c>
+      <c r="J107">
         <v>0.42570000000000002</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>0.20277899999999999</v>
       </c>
-      <c r="K107">
+      <c r="L107">
         <v>1.6519999999999999</v>
       </c>
-      <c r="L107">
+      <c r="M107">
         <v>1439</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2582580624</v>
       </c>
@@ -4993,23 +5322,26 @@
       <c r="G108">
         <v>1640808</v>
       </c>
-      <c r="H108">
-        <v>75.17</v>
-      </c>
-      <c r="I108">
+      <c r="H108" s="2">
+        <v>74.051339285714207</v>
+      </c>
+      <c r="I108" s="2">
+        <v>0</v>
+      </c>
+      <c r="J108">
         <v>0.40289999999999998</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>0.25002999999999997</v>
       </c>
-      <c r="K108">
+      <c r="L108">
         <v>1.7090000000000001</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <v>1434</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2582580625</v>
       </c>
@@ -5028,23 +5360,26 @@
       <c r="G109">
         <v>2371355</v>
       </c>
-      <c r="H109">
-        <v>89.07</v>
-      </c>
-      <c r="I109">
+      <c r="H109" s="2">
+        <v>89.010989010988993</v>
+      </c>
+      <c r="I109" s="2">
+        <v>2.19780219780219</v>
+      </c>
+      <c r="J109">
         <v>0.4582</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>0.18923200000000001</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <v>1.6719999999999999</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <v>2357</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2582580627</v>
       </c>
@@ -5066,23 +5401,26 @@
       <c r="G110">
         <v>1361355</v>
       </c>
-      <c r="H110">
-        <v>82.27</v>
-      </c>
-      <c r="I110">
+      <c r="H110" s="2">
+        <v>82.266917293233007</v>
+      </c>
+      <c r="I110" s="2">
+        <v>1.56641604010025</v>
+      </c>
+      <c r="J110">
         <v>0.50180000000000002</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>0.15926100000000001</v>
       </c>
-      <c r="K110">
+      <c r="L110">
         <v>1.6259999999999999</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <v>1398</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2582580628</v>
       </c>
@@ -5101,23 +5439,26 @@
       <c r="G111">
         <v>1010358</v>
       </c>
-      <c r="H111">
-        <v>72.41</v>
-      </c>
-      <c r="I111">
+      <c r="H111" s="2">
+        <v>72.413793103448199</v>
+      </c>
+      <c r="I111" s="2">
+        <v>0</v>
+      </c>
+      <c r="J111">
         <v>0.4965</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>0.18693599999999999</v>
       </c>
-      <c r="K111">
+      <c r="L111">
         <v>1.641</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <v>1052</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2582580629</v>
       </c>
@@ -5136,23 +5477,26 @@
       <c r="G112">
         <v>1401432</v>
       </c>
-      <c r="H112">
-        <v>99.06</v>
-      </c>
-      <c r="I112">
+      <c r="H112" s="2">
+        <v>98.578199052132703</v>
+      </c>
+      <c r="I112" s="2">
+        <v>9.0047393364928894</v>
+      </c>
+      <c r="J112">
         <v>0.33679999999999999</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>0.275613</v>
       </c>
-      <c r="K112">
+      <c r="L112">
         <v>1.63</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <v>1352</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2582580630</v>
       </c>
@@ -5174,23 +5518,26 @@
       <c r="G113">
         <v>1245790</v>
       </c>
-      <c r="H113">
-        <v>75.56</v>
-      </c>
-      <c r="I113">
+      <c r="H113" s="2">
+        <v>75.563909774435999</v>
+      </c>
+      <c r="I113" s="2">
+        <v>2.7067669172932298</v>
+      </c>
+      <c r="J113">
         <v>0.4733</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>0.16306899999999999</v>
       </c>
-      <c r="K113">
+      <c r="L113">
         <v>1.631</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <v>1301</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2582580631</v>
       </c>
@@ -5209,23 +5556,26 @@
       <c r="G114">
         <v>1750488</v>
       </c>
-      <c r="H114">
-        <v>85.78</v>
-      </c>
-      <c r="I114">
+      <c r="H114" s="2">
+        <v>85.780885780885697</v>
+      </c>
+      <c r="I114" s="2">
+        <v>4.2735042735042699</v>
+      </c>
+      <c r="J114">
         <v>0.64349999999999996</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>0.32281900000000002</v>
       </c>
-      <c r="K114">
+      <c r="L114">
         <v>1.635</v>
       </c>
-      <c r="L114">
+      <c r="M114">
         <v>1846</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2582580632</v>
       </c>
@@ -5247,23 +5597,26 @@
       <c r="G115">
         <v>949240</v>
       </c>
-      <c r="H115">
-        <v>69.459999999999994</v>
-      </c>
-      <c r="I115">
+      <c r="H115" s="2">
+        <v>69.456140350877106</v>
+      </c>
+      <c r="I115" s="2">
+        <v>1.84210526315789</v>
+      </c>
+      <c r="J115">
         <v>0.50549999999999995</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>0.205869</v>
       </c>
-      <c r="K115">
+      <c r="L115">
         <v>1.6359999999999999</v>
       </c>
-      <c r="L115">
+      <c r="M115">
         <v>1005</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2582580633</v>
       </c>
@@ -5285,23 +5638,26 @@
       <c r="G116">
         <v>1727630</v>
       </c>
-      <c r="H116">
-        <v>62.07</v>
-      </c>
-      <c r="I116">
+      <c r="H116" s="2">
+        <v>62.068965517241303</v>
+      </c>
+      <c r="I116" s="2">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="J116">
         <v>0.44740000000000002</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>0.189688</v>
       </c>
-      <c r="K116">
+      <c r="L116">
         <v>1.649</v>
       </c>
-      <c r="L116">
+      <c r="M116">
         <v>1845</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2582580634</v>
       </c>
@@ -5320,23 +5676,26 @@
       <c r="G117">
         <v>1267473</v>
       </c>
-      <c r="H117">
-        <v>69.62</v>
-      </c>
-      <c r="I117">
+      <c r="H117" s="2">
+        <v>69.620132953466197</v>
+      </c>
+      <c r="I117" s="2">
+        <v>1.2820512820512799</v>
+      </c>
+      <c r="J117">
         <v>0.56369999999999998</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>0.173876</v>
       </c>
-      <c r="K117">
+      <c r="L117">
         <v>1.6319999999999999</v>
       </c>
-      <c r="L117">
+      <c r="M117">
         <v>1368</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2582580635</v>
       </c>
@@ -5358,23 +5717,26 @@
       <c r="G118">
         <v>992136</v>
       </c>
-      <c r="H118">
-        <v>68.53</v>
-      </c>
-      <c r="I118">
+      <c r="H118" s="2">
+        <v>68.534482758620598</v>
+      </c>
+      <c r="I118" s="2">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="J118">
         <v>0.4587</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>0.21026500000000001</v>
       </c>
-      <c r="K118">
+      <c r="L118">
         <v>1.6220000000000001</v>
       </c>
-      <c r="L118">
+      <c r="M118">
         <v>1046</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2582580637</v>
       </c>
@@ -5396,23 +5758,26 @@
       <c r="G119">
         <v>2999617</v>
       </c>
-      <c r="H119">
-        <v>76</v>
-      </c>
-      <c r="I119">
+      <c r="H119" s="2">
+        <v>75.883956386292795</v>
+      </c>
+      <c r="I119" s="2">
+        <v>0.467289719626168</v>
+      </c>
+      <c r="J119">
         <v>0.62729999999999997</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>0.33504800000000001</v>
       </c>
-      <c r="K119">
+      <c r="L119">
         <v>1.6910000000000001</v>
       </c>
-      <c r="L119">
+      <c r="M119">
         <v>3084</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2582580638</v>
       </c>
@@ -5431,23 +5796,26 @@
       <c r="G120">
         <v>4671051</v>
       </c>
-      <c r="H120">
-        <v>92.3</v>
-      </c>
-      <c r="I120">
+      <c r="H120" s="2">
+        <v>92.244897959183604</v>
+      </c>
+      <c r="I120" s="2">
+        <v>0.81632653061224403</v>
+      </c>
+      <c r="J120">
         <v>0.59240000000000004</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>0.27260699999999999</v>
       </c>
-      <c r="K120">
+      <c r="L120">
         <v>1.704</v>
       </c>
-      <c r="L120">
+      <c r="M120">
         <v>4345</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2582580639</v>
       </c>
@@ -5466,23 +5834,26 @@
       <c r="G121">
         <v>2778362</v>
       </c>
-      <c r="H121">
-        <v>91.73</v>
-      </c>
-      <c r="I121">
+      <c r="H121" s="2">
+        <v>91.706125174527998</v>
+      </c>
+      <c r="I121" s="2">
+        <v>1.1245674740484399</v>
+      </c>
+      <c r="J121">
         <v>0.41239999999999999</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>0.23940900000000001</v>
       </c>
-      <c r="K121">
+      <c r="L121">
         <v>1.651</v>
       </c>
-      <c r="L121">
+      <c r="M121">
         <v>2620</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2582580640</v>
       </c>
@@ -5501,23 +5872,26 @@
       <c r="G122">
         <v>1999931</v>
       </c>
-      <c r="H122">
-        <v>91.34</v>
-      </c>
-      <c r="I122">
+      <c r="H122" s="2">
+        <v>90.804597701149405</v>
+      </c>
+      <c r="I122" s="2">
+        <v>1.14942528735632</v>
+      </c>
+      <c r="J122">
         <v>0.34720000000000001</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>0.29894300000000001</v>
       </c>
-      <c r="K122">
+      <c r="L122">
         <v>1.619</v>
       </c>
-      <c r="L122">
+      <c r="M122">
         <v>1846</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2582580641</v>
       </c>
@@ -5536,23 +5910,26 @@
       <c r="G123">
         <v>2517309</v>
       </c>
-      <c r="H123">
-        <v>65.819999999999993</v>
-      </c>
-      <c r="I123">
+      <c r="H123" s="2">
+        <v>65.521442495126706</v>
+      </c>
+      <c r="I123" s="2">
+        <v>1.0526315789473599</v>
+      </c>
+      <c r="J123">
         <v>0.62580000000000002</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>0.34259299999999998</v>
       </c>
-      <c r="K123">
+      <c r="L123">
         <v>1.6919999999999999</v>
       </c>
-      <c r="L123">
+      <c r="M123">
         <v>2500</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2582580642</v>
       </c>
@@ -5574,23 +5951,26 @@
       <c r="G124">
         <v>1660228</v>
       </c>
-      <c r="H124">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="I124">
+      <c r="H124" s="2">
+        <v>71.896551724137893</v>
+      </c>
+      <c r="I124" s="2">
+        <v>0</v>
+      </c>
+      <c r="J124">
         <v>0.45839999999999997</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>0.186027</v>
       </c>
-      <c r="K124">
+      <c r="L124">
         <v>1.65</v>
       </c>
-      <c r="L124">
+      <c r="M124">
         <v>1742</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2582580643</v>
       </c>
@@ -5609,23 +5989,26 @@
       <c r="G125">
         <v>1575342</v>
       </c>
-      <c r="H125">
-        <v>62.83</v>
-      </c>
-      <c r="I125">
+      <c r="H125" s="2">
+        <v>61.959496442255002</v>
+      </c>
+      <c r="I125" s="2">
+        <v>0.55281882868089705</v>
+      </c>
+      <c r="J125">
         <v>0.34429999999999999</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>0.27147700000000002</v>
       </c>
-      <c r="K125">
+      <c r="L125">
         <v>1.621</v>
       </c>
-      <c r="L125">
+      <c r="M125">
         <v>1539</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2582580644</v>
       </c>
@@ -5644,23 +6027,26 @@
       <c r="G126">
         <v>1521491</v>
       </c>
-      <c r="H126">
-        <v>98.58</v>
-      </c>
-      <c r="I126">
+      <c r="H126" s="2">
+        <v>98.104265402843595</v>
+      </c>
+      <c r="I126" s="2">
+        <v>2.8436018957345901</v>
+      </c>
+      <c r="J126">
         <v>0.34949999999999998</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>0.25800000000000001</v>
       </c>
-      <c r="K126">
+      <c r="L126">
         <v>1.635</v>
       </c>
-      <c r="L126">
+      <c r="M126">
         <v>1460</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2582580646</v>
       </c>
@@ -5679,23 +6065,26 @@
       <c r="G127">
         <v>1642485</v>
       </c>
-      <c r="H127">
-        <v>72.81</v>
-      </c>
-      <c r="I127">
+      <c r="H127" s="2">
+        <v>72.718636004922601</v>
+      </c>
+      <c r="I127" s="2">
+        <v>1.9021530180699699</v>
+      </c>
+      <c r="J127">
         <v>0.38779999999999998</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>0.25913000000000003</v>
       </c>
-      <c r="K127">
+      <c r="L127">
         <v>1.67</v>
       </c>
-      <c r="L127">
+      <c r="M127">
         <v>1648</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2582580647</v>
       </c>
@@ -5714,23 +6103,26 @@
       <c r="G128">
         <v>2139573</v>
       </c>
-      <c r="H128">
-        <v>81.489999999999995</v>
-      </c>
-      <c r="I128">
+      <c r="H128" s="2">
+        <v>80.415982484948003</v>
+      </c>
+      <c r="I128" s="2">
+        <v>2.1346469622331599</v>
+      </c>
+      <c r="J128">
         <v>0.3821</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>0.26117600000000002</v>
       </c>
-      <c r="K128">
+      <c r="L128">
         <v>1.645</v>
       </c>
-      <c r="L128">
+      <c r="M128">
         <v>2169</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2582580648</v>
       </c>
@@ -5749,23 +6141,26 @@
       <c r="G129">
         <v>3001284</v>
       </c>
-      <c r="H129">
-        <v>95.72</v>
-      </c>
-      <c r="I129">
+      <c r="H129" s="2">
+        <v>95.687134502923897</v>
+      </c>
+      <c r="I129" s="2">
+        <v>3.5087719298245599</v>
+      </c>
+      <c r="J129">
         <v>0.67369999999999997</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>0.45586700000000002</v>
       </c>
-      <c r="K129">
+      <c r="L129">
         <v>1.7210000000000001</v>
       </c>
-      <c r="L129">
+      <c r="M129">
         <v>2829</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2582580649</v>
       </c>
@@ -5787,23 +6182,26 @@
       <c r="G130">
         <v>942700</v>
       </c>
-      <c r="H130">
-        <v>76.06</v>
-      </c>
-      <c r="I130">
+      <c r="H130" s="2">
+        <v>75.503463493659495</v>
+      </c>
+      <c r="I130" s="2">
+        <v>2.92022792022791</v>
+      </c>
+      <c r="J130">
         <v>0.36430000000000001</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>0.29589500000000002</v>
       </c>
-      <c r="K130">
+      <c r="L130">
         <v>1.661</v>
       </c>
-      <c r="L130">
+      <c r="M130">
         <v>1077</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2582580650</v>
       </c>
@@ -5822,23 +6220,26 @@
       <c r="G131">
         <v>899066</v>
       </c>
-      <c r="H131">
-        <v>82.58</v>
-      </c>
-      <c r="I131">
+      <c r="H131" s="2">
+        <v>81.055773897729907</v>
+      </c>
+      <c r="I131" s="2">
+        <v>7.0871722182848998E-2</v>
+      </c>
+      <c r="J131">
         <v>0.2893</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>0.39364199999999999</v>
       </c>
-      <c r="K131">
+      <c r="L131">
         <v>1.6639999999999999</v>
       </c>
-      <c r="L131">
+      <c r="M131">
         <v>1009</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2582580651</v>
       </c>
@@ -5857,23 +6258,26 @@
       <c r="G132">
         <v>2314202</v>
       </c>
-      <c r="H132">
-        <v>91.75</v>
-      </c>
-      <c r="I132">
+      <c r="H132" s="2">
+        <v>91.703296703296701</v>
+      </c>
+      <c r="I132" s="2">
+        <v>0.659340659340659</v>
+      </c>
+      <c r="J132">
         <v>0.46160000000000001</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>0.184971</v>
       </c>
-      <c r="K132">
+      <c r="L132">
         <v>1.665</v>
       </c>
-      <c r="L132">
+      <c r="M132">
         <v>2269</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2582580652</v>
       </c>
@@ -5892,23 +6296,26 @@
       <c r="G133">
         <v>915278</v>
       </c>
-      <c r="H133">
-        <v>63.39</v>
-      </c>
-      <c r="I133">
+      <c r="H133" s="2">
+        <v>63.390313390313302</v>
+      </c>
+      <c r="I133" s="2">
+        <v>0</v>
+      </c>
+      <c r="J133">
         <v>0.40629999999999999</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>0.21399000000000001</v>
       </c>
-      <c r="K133">
+      <c r="L133">
         <v>1.647</v>
       </c>
-      <c r="L133">
+      <c r="M133">
         <v>944</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2582580653</v>
       </c>
@@ -5930,23 +6337,26 @@
       <c r="G134">
         <v>3722418</v>
       </c>
-      <c r="H134">
-        <v>95.19</v>
-      </c>
-      <c r="I134">
+      <c r="H134" s="2">
+        <v>95.171339563862901</v>
+      </c>
+      <c r="I134" s="2">
+        <v>0.27258566978193099</v>
+      </c>
+      <c r="J134">
         <v>0.62539999999999996</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>0.32127699999999998</v>
       </c>
-      <c r="K134">
+      <c r="L134">
         <v>1.6910000000000001</v>
       </c>
-      <c r="L134">
+      <c r="M134">
         <v>3498</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2582580654</v>
       </c>
@@ -5968,23 +6378,26 @@
       <c r="G135">
         <v>2301184</v>
       </c>
-      <c r="H135">
-        <v>98.33</v>
-      </c>
-      <c r="I135">
+      <c r="H135" s="2">
+        <v>98.2578397212543</v>
+      </c>
+      <c r="I135" s="2">
+        <v>2.8455284552845499</v>
+      </c>
+      <c r="J135">
         <v>0.36509999999999998</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>0.26294600000000001</v>
       </c>
-      <c r="K135">
+      <c r="L135">
         <v>1.6120000000000001</v>
       </c>
-      <c r="L135">
+      <c r="M135">
         <v>2337</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2582580657</v>
       </c>
@@ -6006,23 +6419,26 @@
       <c r="G136">
         <v>845311</v>
       </c>
-      <c r="H136">
-        <v>61.59</v>
-      </c>
-      <c r="I136">
+      <c r="H136" s="2">
+        <v>61.328320802005003</v>
+      </c>
+      <c r="I136" s="2">
+        <v>0.394736842105263</v>
+      </c>
+      <c r="J136">
         <v>0.46400000000000002</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>0.19625400000000001</v>
       </c>
-      <c r="K136">
+      <c r="L136">
         <v>1.63</v>
       </c>
-      <c r="L136">
+      <c r="M136">
         <v>952</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2582580658</v>
       </c>
@@ -6044,23 +6460,26 @@
       <c r="G137">
         <v>3815911</v>
       </c>
-      <c r="H137">
-        <v>92.49</v>
-      </c>
-      <c r="I137">
+      <c r="H137" s="2">
+        <v>92.421788328084403</v>
+      </c>
+      <c r="I137" s="2">
+        <v>1.7133956386292799</v>
+      </c>
+      <c r="J137">
         <v>0.61119999999999997</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>0.30693700000000002</v>
       </c>
-      <c r="K137">
+      <c r="L137">
         <v>1.677</v>
       </c>
-      <c r="L137">
+      <c r="M137">
         <v>3672</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2582580659</v>
       </c>
@@ -6082,23 +6501,26 @@
       <c r="G138">
         <v>3407684</v>
       </c>
-      <c r="H138">
-        <v>65.67</v>
-      </c>
-      <c r="I138">
+      <c r="H138" s="2">
+        <v>64.655172413793096</v>
+      </c>
+      <c r="I138" s="2">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="J138">
         <v>0.62080000000000002</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <v>0.34142600000000001</v>
       </c>
-      <c r="K138">
+      <c r="L138">
         <v>1.6719999999999999</v>
       </c>
-      <c r="L138">
+      <c r="M138">
         <v>3377</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2582580662</v>
       </c>
@@ -6117,23 +6539,26 @@
       <c r="G139">
         <v>2981798</v>
       </c>
-      <c r="H139">
-        <v>80.22</v>
-      </c>
-      <c r="I139">
+      <c r="H139" s="2">
+        <v>80.043859649122794</v>
+      </c>
+      <c r="I139" s="2">
+        <v>0.87719298245613997</v>
+      </c>
+      <c r="J139">
         <v>0.67459999999999998</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <v>0.45537100000000003</v>
       </c>
-      <c r="K139">
+      <c r="L139">
         <v>1.7210000000000001</v>
       </c>
-      <c r="L139">
+      <c r="M139">
         <v>2814</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2582580663</v>
       </c>
@@ -6152,23 +6577,26 @@
       <c r="G140">
         <v>843861</v>
       </c>
-      <c r="H140">
-        <v>65.349999999999994</v>
-      </c>
-      <c r="I140">
+      <c r="H140" s="2">
+        <v>65.346534653465298</v>
+      </c>
+      <c r="I140" s="2">
+        <v>1.98019801980198</v>
+      </c>
+      <c r="J140">
         <v>0.38140000000000002</v>
       </c>
-      <c r="J140">
+      <c r="K140">
         <v>0.27901209999999999</v>
       </c>
-      <c r="K140">
+      <c r="L140">
         <v>1.623</v>
       </c>
-      <c r="L140">
+      <c r="M140">
         <v>864</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2582580664</v>
       </c>
@@ -6187,23 +6615,26 @@
       <c r="G141">
         <v>6521824</v>
       </c>
-      <c r="H141">
-        <v>75.650000000000006</v>
-      </c>
-      <c r="I141">
+      <c r="H141" s="2">
+        <v>76.161131119114302</v>
+      </c>
+      <c r="I141" s="2">
+        <v>1.7006802721088401</v>
+      </c>
+      <c r="J141">
         <v>0.62060000000000004</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <v>0.310199</v>
       </c>
-      <c r="K141">
+      <c r="L141">
         <v>1.6779999999999999</v>
       </c>
-      <c r="L141">
+      <c r="M141">
         <v>5372</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2582580665</v>
       </c>
@@ -6222,23 +6653,26 @@
       <c r="G142">
         <v>5159489</v>
       </c>
-      <c r="H142">
-        <v>92.82</v>
-      </c>
-      <c r="I142">
+      <c r="H142" s="2">
+        <v>92.429494712103306</v>
+      </c>
+      <c r="I142" s="2">
+        <v>9.4594594594594597</v>
+      </c>
+      <c r="J142">
         <v>0.58320000000000005</v>
       </c>
-      <c r="J142">
+      <c r="K142">
         <v>0.286163</v>
       </c>
-      <c r="K142">
+      <c r="L142">
         <v>1.6930000000000001</v>
       </c>
-      <c r="L142">
+      <c r="M142">
         <v>4793</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2582580668</v>
       </c>
@@ -6257,23 +6691,26 @@
       <c r="G143">
         <v>4497082</v>
       </c>
-      <c r="H143">
-        <v>93.29</v>
-      </c>
-      <c r="I143">
+      <c r="H143" s="2">
+        <v>93.243243243243199</v>
+      </c>
+      <c r="I143" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="J143">
         <v>0.56830000000000003</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>0.262791</v>
       </c>
-      <c r="K143">
+      <c r="L143">
         <v>1.68</v>
       </c>
-      <c r="L143">
+      <c r="M143">
         <v>3743</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2582580669</v>
       </c>
@@ -6292,23 +6729,26 @@
       <c r="G144">
         <v>3174086</v>
       </c>
-      <c r="H144">
-        <v>89.94</v>
-      </c>
-      <c r="I144">
+      <c r="H144" s="2">
+        <v>89.1543513957307</v>
+      </c>
+      <c r="I144" s="2">
+        <v>4.5320197044334902</v>
+      </c>
+      <c r="J144">
         <v>0.34799999999999998</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>0.28160200000000002</v>
       </c>
-      <c r="K144">
+      <c r="L144">
         <v>1.635</v>
       </c>
-      <c r="L144">
+      <c r="M144">
         <v>3142</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2582580670</v>
       </c>
@@ -6327,23 +6767,26 @@
       <c r="G145">
         <v>1149636</v>
       </c>
-      <c r="H145">
-        <v>67.239999999999995</v>
-      </c>
-      <c r="I145">
+      <c r="H145" s="2">
+        <v>67.241379310344797</v>
+      </c>
+      <c r="I145" s="2">
+        <v>0.86206896551724099</v>
+      </c>
+      <c r="J145">
         <v>0.49559999999999998</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>0.18734899999999999</v>
       </c>
-      <c r="K145">
+      <c r="L145">
         <v>1.6419999999999999</v>
       </c>
-      <c r="L145">
+      <c r="M145">
         <v>1217</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2582580671</v>
       </c>
@@ -6362,23 +6805,26 @@
       <c r="G146">
         <v>1170081</v>
       </c>
-      <c r="H146">
-        <v>80.73</v>
-      </c>
-      <c r="I146">
+      <c r="H146" s="2">
+        <v>80.652680652680601</v>
+      </c>
+      <c r="I146" s="2">
+        <v>1.2820512820512799</v>
+      </c>
+      <c r="J146">
         <v>0.54730000000000001</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <v>0.19159100000000001</v>
       </c>
-      <c r="K146">
+      <c r="L146">
         <v>1.6459999999999999</v>
       </c>
-      <c r="L146">
+      <c r="M146">
         <v>1270</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2582580672</v>
       </c>
@@ -6397,23 +6843,26 @@
       <c r="G147">
         <v>3335528</v>
       </c>
-      <c r="H147">
-        <v>81.739999999999995</v>
-      </c>
-      <c r="I147">
+      <c r="H147" s="2">
+        <v>80.701754385964904</v>
+      </c>
+      <c r="I147" s="2">
+        <v>1.8274853801169499</v>
+      </c>
+      <c r="J147">
         <v>0.66059999999999997</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <v>0.437303</v>
       </c>
-      <c r="K147">
+      <c r="L147">
         <v>1.7030000000000001</v>
       </c>
-      <c r="L147">
+      <c r="M147">
         <v>3116</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2582580673</v>
       </c>
@@ -6432,23 +6881,26 @@
       <c r="G148">
         <v>3778915</v>
       </c>
-      <c r="H148">
-        <v>97.86</v>
-      </c>
-      <c r="I148">
+      <c r="H148" s="2">
+        <v>97.849462365591293</v>
+      </c>
+      <c r="I148" s="2">
+        <v>1.1241446725317601</v>
+      </c>
+      <c r="J148">
         <v>0.4703</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <v>0.15681300000000001</v>
       </c>
-      <c r="K148">
+      <c r="L148">
         <v>1.647</v>
       </c>
-      <c r="L148">
+      <c r="M148">
         <v>3165</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2582580674</v>
       </c>
@@ -6467,23 +6919,26 @@
       <c r="G149">
         <v>2657023</v>
       </c>
-      <c r="H149">
-        <v>97.16</v>
-      </c>
-      <c r="I149">
+      <c r="H149" s="2">
+        <v>97.142857142857096</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0.39682539682539603</v>
+      </c>
+      <c r="J149">
         <v>0.51849999999999996</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <v>0.204571</v>
       </c>
-      <c r="K149">
+      <c r="L149">
         <v>1.6850000000000001</v>
       </c>
-      <c r="L149">
+      <c r="M149">
         <v>2581</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2582580675</v>
       </c>
@@ -6505,23 +6960,26 @@
       <c r="G150">
         <v>1214182</v>
       </c>
-      <c r="H150">
-        <v>76.77</v>
-      </c>
-      <c r="I150">
+      <c r="H150" s="2">
+        <v>76.766917293233007</v>
+      </c>
+      <c r="I150" s="2">
+        <v>0.26315789473684198</v>
+      </c>
+      <c r="J150">
         <v>0.47360000000000002</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <v>0.16717299999999999</v>
       </c>
-      <c r="K150">
+      <c r="L150">
         <v>1.6339999999999999</v>
       </c>
-      <c r="L150">
+      <c r="M150">
         <v>1280</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2582580677</v>
       </c>
@@ -6540,23 +6998,26 @@
       <c r="G151">
         <v>2227372</v>
       </c>
-      <c r="H151">
-        <v>97.22</v>
-      </c>
-      <c r="I151">
+      <c r="H151" s="2">
+        <v>97.212610534409805</v>
+      </c>
+      <c r="I151" s="2">
+        <v>0.69204152249134898</v>
+      </c>
+      <c r="J151">
         <v>0.39860000000000001</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <v>0.253801</v>
       </c>
-      <c r="K151">
+      <c r="L151">
         <v>1.645</v>
       </c>
-      <c r="L151">
+      <c r="M151">
         <v>2192</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2582580679</v>
       </c>
@@ -6575,23 +7036,26 @@
       <c r="G152">
         <v>823317</v>
       </c>
-      <c r="H152">
-        <v>79.81</v>
-      </c>
-      <c r="I152">
+      <c r="H152" s="2">
+        <v>79.588014981273403</v>
+      </c>
+      <c r="I152" s="2">
+        <v>0</v>
+      </c>
+      <c r="J152">
         <v>0.35520000000000002</v>
       </c>
-      <c r="J152">
+      <c r="K152">
         <v>0.26821899999999999</v>
       </c>
-      <c r="K152">
+      <c r="L152">
         <v>1.621</v>
       </c>
-      <c r="L152">
+      <c r="M152">
         <v>820</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2582580680</v>
       </c>
@@ -6610,23 +7074,26 @@
       <c r="G153">
         <v>2533346</v>
       </c>
-      <c r="H153">
-        <v>75.14</v>
-      </c>
-      <c r="I153">
+      <c r="H153" s="2">
+        <v>75.143678160919507</v>
+      </c>
+      <c r="I153" s="2">
+        <v>0.28735632183908</v>
+      </c>
+      <c r="J153">
         <v>0.69379999999999997</v>
       </c>
-      <c r="J153">
+      <c r="K153">
         <v>0.50730600000000003</v>
       </c>
-      <c r="K153">
+      <c r="L153">
         <v>1.6679999999999999</v>
       </c>
-      <c r="L153">
+      <c r="M153">
         <v>2677</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2582580682</v>
       </c>
@@ -6645,23 +7112,26 @@
       <c r="G154">
         <v>4730745</v>
       </c>
-      <c r="H154">
-        <v>81.28</v>
-      </c>
-      <c r="I154">
+      <c r="H154" s="2">
+        <v>81.827262044653295</v>
+      </c>
+      <c r="I154" s="2">
+        <v>3.71621621621621</v>
+      </c>
+      <c r="J154">
         <v>0.47770000000000001</v>
       </c>
-      <c r="J154">
+      <c r="K154">
         <v>0.20377899999999999</v>
       </c>
-      <c r="K154">
+      <c r="L154">
         <v>1.661</v>
       </c>
-      <c r="L154">
+      <c r="M154">
         <v>3938</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2582580683</v>
       </c>
@@ -6680,23 +7150,26 @@
       <c r="G155">
         <v>1544655</v>
       </c>
-      <c r="H155">
-        <v>98.58</v>
-      </c>
-      <c r="I155">
+      <c r="H155" s="2">
+        <v>98.104265402843595</v>
+      </c>
+      <c r="I155" s="2">
+        <v>2.8436018957345901</v>
+      </c>
+      <c r="J155">
         <v>0.3493</v>
       </c>
-      <c r="J155">
+      <c r="K155">
         <v>0.25855400000000001</v>
       </c>
-      <c r="K155">
+      <c r="L155">
         <v>1.6359999999999999</v>
       </c>
-      <c r="L155">
+      <c r="M155">
         <v>1486</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2582580684</v>
       </c>
@@ -6715,23 +7188,26 @@
       <c r="G156">
         <v>3073408</v>
       </c>
-      <c r="H156">
-        <v>77.19</v>
-      </c>
-      <c r="I156">
+      <c r="H156" s="2">
+        <v>77.1929824561403</v>
+      </c>
+      <c r="I156" s="2">
+        <v>0</v>
+      </c>
+      <c r="J156">
         <v>0.53010000000000002</v>
       </c>
-      <c r="J156">
+      <c r="K156">
         <v>0.20247100000000001</v>
       </c>
-      <c r="K156">
+      <c r="L156">
         <v>1.68</v>
       </c>
-      <c r="L156">
+      <c r="M156">
         <v>2823</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2582580685</v>
       </c>
@@ -6750,23 +7226,26 @@
       <c r="G157">
         <v>3044346</v>
       </c>
-      <c r="H157">
-        <v>94.87</v>
-      </c>
-      <c r="I157">
+      <c r="H157" s="2">
+        <v>94.844006568144493</v>
+      </c>
+      <c r="I157" s="2">
+        <v>1.7405582922824301</v>
+      </c>
+      <c r="J157">
         <v>0.36699999999999999</v>
       </c>
-      <c r="J157">
+      <c r="K157">
         <v>0.25637199999999999</v>
       </c>
-      <c r="K157">
+      <c r="L157">
         <v>1.6359999999999999</v>
       </c>
-      <c r="L157">
+      <c r="M157">
         <v>2773</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2582580686</v>
       </c>
@@ -6785,23 +7264,26 @@
       <c r="G158">
         <v>1738602</v>
       </c>
-      <c r="H158">
-        <v>81.790000000000006</v>
-      </c>
-      <c r="I158">
+      <c r="H158" s="2">
+        <v>81.686046511627893</v>
+      </c>
+      <c r="I158" s="2">
+        <v>1.5891472868217</v>
+      </c>
+      <c r="J158">
         <v>0.37109999999999999</v>
       </c>
-      <c r="J158">
+      <c r="K158">
         <v>0.27089200000000002</v>
       </c>
-      <c r="K158">
+      <c r="L158">
         <v>1.6659999999999999</v>
       </c>
-      <c r="L158">
+      <c r="M158">
         <v>1599</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2582580687</v>
       </c>
@@ -6820,23 +7302,26 @@
       <c r="G159">
         <v>3680673</v>
       </c>
-      <c r="H159">
-        <v>79.39</v>
-      </c>
-      <c r="I159">
+      <c r="H159" s="2">
+        <v>78.3333333333333</v>
+      </c>
+      <c r="I159" s="2">
+        <v>2.6315789473684199</v>
+      </c>
+      <c r="J159">
         <v>0.68920000000000003</v>
       </c>
-      <c r="J159">
+      <c r="K159">
         <v>0.540968</v>
       </c>
-      <c r="K159">
+      <c r="L159">
         <v>1.7090000000000001</v>
       </c>
-      <c r="L159">
+      <c r="M159">
         <v>3551</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2582580688</v>
       </c>
@@ -6855,23 +7340,26 @@
       <c r="G160">
         <v>3289830</v>
       </c>
-      <c r="H160">
-        <v>88.67</v>
-      </c>
-      <c r="I160">
+      <c r="H160" s="2">
+        <v>88.595890410958901</v>
+      </c>
+      <c r="I160" s="2">
+        <v>2.0547945205479401</v>
+      </c>
+      <c r="J160">
         <v>0.65349999999999997</v>
       </c>
-      <c r="J160">
+      <c r="K160">
         <v>0.39703899999999998</v>
       </c>
-      <c r="K160">
+      <c r="L160">
         <v>1.7170000000000001</v>
       </c>
-      <c r="L160">
+      <c r="M160">
         <v>3088</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2582580689</v>
       </c>
@@ -6890,23 +7378,26 @@
       <c r="G161">
         <v>5793761</v>
       </c>
-      <c r="H161">
-        <v>88.42</v>
-      </c>
-      <c r="I161">
+      <c r="H161" s="2">
+        <v>88.341013824884797</v>
+      </c>
+      <c r="I161" s="2">
+        <v>0.80645161290322498</v>
+      </c>
+      <c r="J161">
         <v>0.61150000000000004</v>
       </c>
-      <c r="J161">
+      <c r="K161">
         <v>0.33751500000000001</v>
       </c>
-      <c r="K161">
+      <c r="L161">
         <v>1.6639999999999999</v>
       </c>
-      <c r="L161">
+      <c r="M161">
         <v>5076</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2582580690</v>
       </c>
@@ -6925,23 +7416,26 @@
       <c r="G162">
         <v>2035176</v>
       </c>
-      <c r="H162">
-        <v>63.93</v>
-      </c>
-      <c r="I162">
+      <c r="H162" s="2">
+        <v>62.2100313479623</v>
+      </c>
+      <c r="I162" s="2">
+        <v>0</v>
+      </c>
+      <c r="J162">
         <v>0.3201</v>
       </c>
-      <c r="J162">
+      <c r="K162">
         <v>0.34229199999999999</v>
       </c>
-      <c r="K162">
+      <c r="L162">
         <v>1.6220000000000001</v>
       </c>
-      <c r="L162">
+      <c r="M162">
         <v>2183</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2582580691</v>
       </c>
@@ -6960,23 +7454,26 @@
       <c r="G163">
         <v>2963500</v>
       </c>
-      <c r="H163">
-        <v>57.26</v>
-      </c>
-      <c r="I163">
+      <c r="H163" s="2">
+        <v>55.7328460173728</v>
+      </c>
+      <c r="I163" s="2">
+        <v>1.5496474735605099</v>
+      </c>
+      <c r="J163">
         <v>0.62670000000000003</v>
       </c>
-      <c r="J163">
+      <c r="K163">
         <v>0.368452</v>
       </c>
-      <c r="K163">
+      <c r="L163">
         <v>1.7270000000000001</v>
       </c>
-      <c r="L163">
+      <c r="M163">
         <v>2765</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2582580692</v>
       </c>
@@ -6995,23 +7492,26 @@
       <c r="G164">
         <v>2833050</v>
       </c>
-      <c r="H164">
-        <v>61.78</v>
-      </c>
-      <c r="I164">
+      <c r="H164" s="2">
+        <v>61.308243727598501</v>
+      </c>
+      <c r="I164" s="2">
+        <v>0</v>
+      </c>
+      <c r="J164">
         <v>0.36</v>
       </c>
-      <c r="J164">
+      <c r="K164">
         <v>0.23940700000000001</v>
       </c>
-      <c r="K164">
+      <c r="L164">
         <v>1.635</v>
       </c>
-      <c r="L164">
+      <c r="M164">
         <v>2691</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2582580693</v>
       </c>
@@ -7030,23 +7530,26 @@
       <c r="G165">
         <v>819508</v>
       </c>
-      <c r="H165">
-        <v>60.66</v>
-      </c>
-      <c r="I165">
+      <c r="H165" s="2">
+        <v>60.655270655270598</v>
+      </c>
+      <c r="I165" s="2">
+        <v>0</v>
+      </c>
+      <c r="J165">
         <v>0.46899999999999997</v>
       </c>
-      <c r="J165">
+      <c r="K165">
         <v>0.206619</v>
       </c>
-      <c r="K165">
+      <c r="L165">
         <v>1.6259999999999999</v>
       </c>
-      <c r="L165">
+      <c r="M165">
         <v>840</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2582580694</v>
       </c>
@@ -7065,23 +7568,26 @@
       <c r="G166">
         <v>2536172</v>
       </c>
-      <c r="H166">
-        <v>63.95</v>
-      </c>
-      <c r="I166">
+      <c r="H166" s="2">
+        <v>63.949843260187997</v>
+      </c>
+      <c r="I166" s="2">
+        <v>0</v>
+      </c>
+      <c r="J166">
         <v>0.4501</v>
       </c>
-      <c r="J166">
+      <c r="K166">
         <v>0.16072900000000001</v>
       </c>
-      <c r="K166">
+      <c r="L166">
         <v>1.6140000000000001</v>
       </c>
-      <c r="L166">
+      <c r="M166">
         <v>2055</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2582580695</v>
       </c>
@@ -7100,23 +7606,26 @@
       <c r="G167">
         <v>4310034</v>
       </c>
-      <c r="H167">
-        <v>96.94</v>
-      </c>
-      <c r="I167">
+      <c r="H167" s="2">
+        <v>96.927374301675897</v>
+      </c>
+      <c r="I167" s="2">
+        <v>5.5865921787709496</v>
+      </c>
+      <c r="J167">
         <v>0.35310000000000002</v>
       </c>
-      <c r="J167">
+      <c r="K167">
         <v>0.24405499999999999</v>
       </c>
-      <c r="K167">
+      <c r="L167">
         <v>1.619</v>
       </c>
-      <c r="L167">
+      <c r="M167">
         <v>3689</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2582580697</v>
       </c>
@@ -7135,23 +7644,26 @@
       <c r="G168">
         <v>4397594</v>
       </c>
-      <c r="H168">
-        <v>97.22</v>
-      </c>
-      <c r="I168">
+      <c r="H168" s="2">
+        <v>97.206703910614493</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0.55865921787709405</v>
+      </c>
+      <c r="J168">
         <v>0.36370000000000002</v>
       </c>
-      <c r="J168">
+      <c r="K168">
         <v>0.22094800000000001</v>
       </c>
-      <c r="K168">
+      <c r="L168">
         <v>1.6120000000000001</v>
       </c>
-      <c r="L168">
+      <c r="M168">
         <v>3702</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2582580698</v>
       </c>
@@ -7170,23 +7682,26 @@
       <c r="G169">
         <v>1348795</v>
       </c>
-      <c r="H169">
-        <v>95.28</v>
-      </c>
-      <c r="I169">
+      <c r="H169" s="2">
+        <v>94.786729857819907</v>
+      </c>
+      <c r="I169" s="2">
+        <v>5.2132701421800904</v>
+      </c>
+      <c r="J169">
         <v>0.33550000000000002</v>
       </c>
-      <c r="J169">
+      <c r="K169">
         <v>0.27670699999999998</v>
       </c>
-      <c r="K169">
+      <c r="L169">
         <v>1.629</v>
       </c>
-      <c r="L169">
+      <c r="M169">
         <v>1280</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2582580699</v>
       </c>
@@ -7205,23 +7720,26 @@
       <c r="G170">
         <v>1679340</v>
       </c>
-      <c r="H170">
-        <v>81.36</v>
-      </c>
-      <c r="I170">
+      <c r="H170" s="2">
+        <v>80.301339285714207</v>
+      </c>
+      <c r="I170" s="2">
+        <v>0</v>
+      </c>
+      <c r="J170">
         <v>0.40410000000000001</v>
       </c>
-      <c r="J170">
+      <c r="K170">
         <v>0.24704899999999999</v>
       </c>
-      <c r="K170">
+      <c r="L170">
         <v>1.71</v>
       </c>
-      <c r="L170">
+      <c r="M170">
         <v>1472</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2582580700</v>
       </c>
@@ -7240,23 +7758,26 @@
       <c r="G171">
         <v>3181706</v>
       </c>
-      <c r="H171">
-        <v>91.23</v>
-      </c>
-      <c r="I171">
+      <c r="H171" s="2">
+        <v>91.190768978521007</v>
+      </c>
+      <c r="I171" s="2">
+        <v>0.47897196261682201</v>
+      </c>
+      <c r="J171">
         <v>0.54190000000000005</v>
       </c>
-      <c r="J171">
+      <c r="K171">
         <v>0.22103400000000001</v>
       </c>
-      <c r="K171">
+      <c r="L171">
         <v>1.67</v>
       </c>
-      <c r="L171">
+      <c r="M171">
         <v>3041</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2582580701</v>
       </c>
@@ -7275,23 +7796,26 @@
       <c r="G172">
         <v>878995</v>
       </c>
-      <c r="H172">
-        <v>79.650000000000006</v>
-      </c>
-      <c r="I172">
+      <c r="H172" s="2">
+        <v>79.419776082036407</v>
+      </c>
+      <c r="I172" s="2">
+        <v>0</v>
+      </c>
+      <c r="J172">
         <v>0.33489999999999998</v>
       </c>
-      <c r="J172">
+      <c r="K172">
         <v>0.31974200000000003</v>
       </c>
-      <c r="K172">
+      <c r="L172">
         <v>1.6419999999999999</v>
       </c>
-      <c r="L172">
+      <c r="M172">
         <v>922</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2582580702</v>
       </c>
@@ -7310,23 +7834,26 @@
       <c r="G173">
         <v>5154715</v>
       </c>
-      <c r="H173">
-        <v>90.91</v>
-      </c>
-      <c r="I173">
+      <c r="H173" s="2">
+        <v>90.860215053763397</v>
+      </c>
+      <c r="I173" s="2">
+        <v>3.3602150537634401</v>
+      </c>
+      <c r="J173">
         <v>0.39850000000000002</v>
       </c>
-      <c r="J173">
+      <c r="K173">
         <v>0.19093399999999999</v>
       </c>
-      <c r="K173">
+      <c r="L173">
         <v>1.64</v>
       </c>
-      <c r="L173">
+      <c r="M173">
         <v>4340</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2582580703</v>
       </c>
@@ -7345,23 +7872,26 @@
       <c r="G174">
         <v>1942197</v>
       </c>
-      <c r="H174">
-        <v>83.49</v>
-      </c>
-      <c r="I174">
+      <c r="H174" s="2">
+        <v>83.268115942028899</v>
+      </c>
+      <c r="I174" s="2">
+        <v>2.3188405797101401</v>
+      </c>
+      <c r="J174">
         <v>0.62129999999999996</v>
       </c>
-      <c r="J174">
+      <c r="K174">
         <v>0.35728300000000002</v>
       </c>
-      <c r="K174">
+      <c r="L174">
         <v>1.6719999999999999</v>
       </c>
-      <c r="L174">
+      <c r="M174">
         <v>2168</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2582580705</v>
       </c>
@@ -7380,23 +7910,26 @@
       <c r="G175">
         <v>1257796</v>
       </c>
-      <c r="H175">
-        <v>72.7</v>
-      </c>
-      <c r="I175">
+      <c r="H175" s="2">
+        <v>72.701149425287298</v>
+      </c>
+      <c r="I175" s="2">
+        <v>3.44827586206896</v>
+      </c>
+      <c r="J175">
         <v>0.50119999999999998</v>
       </c>
-      <c r="J175">
+      <c r="K175">
         <v>0.162387</v>
       </c>
-      <c r="K175">
+      <c r="L175">
         <v>1.6259999999999999</v>
       </c>
-      <c r="L175">
+      <c r="M175">
         <v>1309</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2582580706</v>
       </c>
@@ -7415,23 +7948,26 @@
       <c r="G176">
         <v>819610</v>
       </c>
-      <c r="H176">
-        <v>72.22</v>
-      </c>
-      <c r="I176">
+      <c r="H176" s="2">
+        <v>71.910112359550496</v>
+      </c>
+      <c r="I176" s="2">
+        <v>1.1235955056179701</v>
+      </c>
+      <c r="J176">
         <v>0.45550000000000002</v>
       </c>
-      <c r="J176">
+      <c r="K176">
         <v>0.235234</v>
       </c>
-      <c r="K176">
+      <c r="L176">
         <v>1.6619999999999999</v>
       </c>
-      <c r="L176">
+      <c r="M176">
         <v>844</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2582580708</v>
       </c>
@@ -7450,23 +7986,26 @@
       <c r="G177">
         <v>2314650</v>
       </c>
-      <c r="H177">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="I177">
+      <c r="H177" s="2">
+        <v>62.2939068100358</v>
+      </c>
+      <c r="I177" s="2">
+        <v>0.53763440860214995</v>
+      </c>
+      <c r="J177">
         <v>0.36459999999999998</v>
       </c>
-      <c r="J177">
+      <c r="K177">
         <v>0.25373000000000001</v>
       </c>
-      <c r="K177">
+      <c r="L177">
         <v>1.6379999999999999</v>
       </c>
-      <c r="L177">
+      <c r="M177">
         <v>2224</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2582580711</v>
       </c>
@@ -7488,23 +8027,26 @@
       <c r="G178">
         <v>1737056</v>
       </c>
-      <c r="H178">
-        <v>69.83</v>
-      </c>
-      <c r="I178">
+      <c r="H178" s="2">
+        <v>69.827586206896498</v>
+      </c>
+      <c r="I178" s="2">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="J178">
         <v>0.4607</v>
       </c>
-      <c r="J178">
+      <c r="K178">
         <v>0.19320399999999999</v>
       </c>
-      <c r="K178">
+      <c r="L178">
         <v>1.6519999999999999</v>
       </c>
-      <c r="L178">
+      <c r="M178">
         <v>1902</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2582580712</v>
       </c>
@@ -7526,23 +8068,26 @@
       <c r="G179">
         <v>1556854</v>
       </c>
-      <c r="H179">
-        <v>93.3</v>
-      </c>
-      <c r="I179">
+      <c r="H179" s="2">
+        <v>93.164862098685603</v>
+      </c>
+      <c r="I179" s="2">
+        <v>2.53158243354321</v>
+      </c>
+      <c r="J179">
         <v>0.4214</v>
       </c>
-      <c r="J179">
+      <c r="K179">
         <v>0.218587</v>
       </c>
-      <c r="K179">
+      <c r="L179">
         <v>1.663</v>
       </c>
-      <c r="L179">
+      <c r="M179">
         <v>1569</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2593339176</v>
       </c>
@@ -7564,23 +8109,26 @@
       <c r="G180">
         <v>1431993</v>
       </c>
-      <c r="H180">
-        <v>89.68</v>
-      </c>
-      <c r="I180">
+      <c r="H180" s="2">
+        <v>89.636752136752094</v>
+      </c>
+      <c r="I180" s="2">
+        <v>0.854700854700854</v>
+      </c>
+      <c r="J180">
         <v>0.42609999999999998</v>
       </c>
-      <c r="J180">
+      <c r="K180">
         <v>0.20109199999999999</v>
       </c>
-      <c r="K180">
+      <c r="L180">
         <v>1.651</v>
       </c>
-      <c r="L180">
+      <c r="M180">
         <v>1411</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2593339177</v>
       </c>
@@ -7602,23 +8150,26 @@
       <c r="G181">
         <v>1496525</v>
       </c>
-      <c r="H181">
-        <v>57.24</v>
-      </c>
-      <c r="I181">
+      <c r="H181" s="2">
+        <v>57.241379310344797</v>
+      </c>
+      <c r="I181" s="2">
+        <v>0</v>
+      </c>
+      <c r="J181">
         <v>0.44829999999999998</v>
       </c>
-      <c r="J181">
+      <c r="K181">
         <v>0.18725800000000001</v>
       </c>
-      <c r="K181">
+      <c r="L181">
         <v>1.6539999999999999</v>
       </c>
-      <c r="L181">
+      <c r="M181">
         <v>1553</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2593339178</v>
       </c>
@@ -7637,23 +8188,26 @@
       <c r="G182">
         <v>3124798</v>
       </c>
-      <c r="H182">
-        <v>94.05</v>
-      </c>
-      <c r="I182">
+      <c r="H182" s="2">
+        <v>93.681123518926199</v>
+      </c>
+      <c r="I182" s="2">
+        <v>3.5005767012687401</v>
+      </c>
+      <c r="J182">
         <v>0.39689999999999998</v>
       </c>
-      <c r="J182">
+      <c r="K182">
         <v>0.25898399999999999</v>
       </c>
-      <c r="K182">
+      <c r="L182">
         <v>1.653</v>
       </c>
-      <c r="L182">
+      <c r="M182">
         <v>2879</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2593339179</v>
       </c>
@@ -7672,23 +8226,26 @@
       <c r="G183">
         <v>3680027</v>
       </c>
-      <c r="H183">
-        <v>72.41</v>
-      </c>
-      <c r="I183">
+      <c r="H183" s="2">
+        <v>72.413793103448199</v>
+      </c>
+      <c r="I183" s="2">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="J183">
         <v>0.43380000000000002</v>
       </c>
-      <c r="J183">
+      <c r="K183">
         <v>0.157443</v>
       </c>
-      <c r="K183">
+      <c r="L183">
         <v>1.6439999999999999</v>
       </c>
-      <c r="L183">
+      <c r="M183">
         <v>2932</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2593339181</v>
       </c>
@@ -7707,23 +8264,26 @@
       <c r="G184">
         <v>1808963</v>
       </c>
-      <c r="H184">
-        <v>71.73</v>
-      </c>
-      <c r="I184">
+      <c r="H184" s="2">
+        <v>71.535052377115207</v>
+      </c>
+      <c r="I184" s="2">
+        <v>0.34246575342465702</v>
+      </c>
+      <c r="J184">
         <v>0.41820000000000002</v>
       </c>
-      <c r="J184">
+      <c r="K184">
         <v>0.203209</v>
       </c>
-      <c r="K184">
+      <c r="L184">
         <v>1.66</v>
       </c>
-      <c r="L184">
+      <c r="M184">
         <v>1623</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2593339182</v>
       </c>
@@ -7745,23 +8305,26 @@
       <c r="G185">
         <v>1002927</v>
       </c>
-      <c r="H185">
-        <v>62.07</v>
-      </c>
-      <c r="I185">
+      <c r="H185" s="2">
+        <v>62.068965517241303</v>
+      </c>
+      <c r="I185" s="2">
+        <v>3.44827586206896</v>
+      </c>
+      <c r="J185">
         <v>0.3629</v>
       </c>
-      <c r="J185">
+      <c r="K185">
         <v>0.29165000000000002</v>
       </c>
-      <c r="K185">
+      <c r="L185">
         <v>1.66</v>
       </c>
-      <c r="L185">
+      <c r="M185">
         <v>1146</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2593339183</v>
       </c>
@@ -7780,23 +8343,26 @@
       <c r="G186">
         <v>3798404</v>
       </c>
-      <c r="H186">
-        <v>93.36</v>
-      </c>
-      <c r="I186">
+      <c r="H186" s="2">
+        <v>93.364197530864104</v>
+      </c>
+      <c r="I186" s="2">
+        <v>0</v>
+      </c>
+      <c r="J186">
         <v>0.5232</v>
       </c>
-      <c r="J186">
+      <c r="K186">
         <v>0.187665</v>
       </c>
-      <c r="K186">
+      <c r="L186">
         <v>1.681</v>
       </c>
-      <c r="L186">
+      <c r="M186">
         <v>3338</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2593339184</v>
       </c>
@@ -7815,23 +8381,26 @@
       <c r="G187">
         <v>2156671</v>
       </c>
-      <c r="H187">
-        <v>89.34</v>
-      </c>
-      <c r="I187">
+      <c r="H187" s="2">
+        <v>89.285714285714207</v>
+      </c>
+      <c r="I187" s="2">
+        <v>1.0989010989010899</v>
+      </c>
+      <c r="J187">
         <v>0.45860000000000001</v>
       </c>
-      <c r="J187">
+      <c r="K187">
         <v>0.19060099999999999</v>
       </c>
-      <c r="K187">
+      <c r="L187">
         <v>1.6659999999999999</v>
       </c>
-      <c r="L187">
+      <c r="M187">
         <v>2194</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2593339185</v>
       </c>
@@ -7850,23 +8419,26 @@
       <c r="G188">
         <v>1315659</v>
       </c>
-      <c r="H188">
-        <v>76.069999999999993</v>
-      </c>
-      <c r="I188">
+      <c r="H188" s="2">
+        <v>76.068376068375997</v>
+      </c>
+      <c r="I188" s="2">
+        <v>0.427350427350427</v>
+      </c>
+      <c r="J188">
         <v>0.56369999999999998</v>
       </c>
-      <c r="J188">
+      <c r="K188">
         <v>0.16851099999999999</v>
       </c>
-      <c r="K188">
+      <c r="L188">
         <v>1.637</v>
       </c>
-      <c r="L188">
+      <c r="M188">
         <v>1353</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2593339187</v>
       </c>
@@ -7885,23 +8457,26 @@
       <c r="G189">
         <v>996711</v>
       </c>
-      <c r="H189">
-        <v>67.67</v>
-      </c>
-      <c r="I189">
+      <c r="H189" s="2">
+        <v>67.024610305903806</v>
+      </c>
+      <c r="I189" s="2">
+        <v>1.2374934175882</v>
+      </c>
+      <c r="J189">
         <v>0.52800000000000002</v>
       </c>
-      <c r="J189">
+      <c r="K189">
         <v>0.222607</v>
       </c>
-      <c r="K189">
+      <c r="L189">
         <v>1.6990000000000001</v>
       </c>
-      <c r="L189">
+      <c r="M189">
         <v>1072</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2593339188</v>
       </c>
@@ -7923,23 +8498,26 @@
       <c r="G190">
         <v>990006</v>
       </c>
-      <c r="H190">
-        <v>56.9</v>
-      </c>
-      <c r="I190">
+      <c r="H190" s="2">
+        <v>56.8965517241379</v>
+      </c>
+      <c r="I190" s="2">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="J190">
         <v>0.47270000000000001</v>
       </c>
-      <c r="J190">
+      <c r="K190">
         <v>0.18310899999999999</v>
       </c>
-      <c r="K190">
+      <c r="L190">
         <v>1.6639999999999999</v>
       </c>
-      <c r="L190">
+      <c r="M190">
         <v>1104</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2593339189</v>
       </c>
@@ -7958,23 +8536,26 @@
       <c r="G191">
         <v>2186907</v>
       </c>
-      <c r="H191">
-        <v>89.53</v>
-      </c>
-      <c r="I191">
+      <c r="H191" s="2">
+        <v>89.457426806338901</v>
+      </c>
+      <c r="I191" s="2">
+        <v>2.0547945205479401</v>
+      </c>
+      <c r="J191">
         <v>0.41899999999999998</v>
       </c>
-      <c r="J191">
+      <c r="K191">
         <v>0.203843</v>
       </c>
-      <c r="K191">
+      <c r="L191">
         <v>1.657</v>
       </c>
-      <c r="L191">
+      <c r="M191">
         <v>1957</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2593339190</v>
       </c>
@@ -7996,23 +8577,26 @@
       <c r="G192">
         <v>971617</v>
       </c>
-      <c r="H192">
-        <v>74.31</v>
-      </c>
-      <c r="I192">
+      <c r="H192" s="2">
+        <v>73.784461152882201</v>
+      </c>
+      <c r="I192" s="2">
+        <v>3.9348370927318199</v>
+      </c>
+      <c r="J192">
         <v>0.49869999999999998</v>
       </c>
-      <c r="J192">
+      <c r="K192">
         <v>0.18362100000000001</v>
       </c>
-      <c r="K192">
+      <c r="L192">
         <v>1.633</v>
       </c>
-      <c r="L192">
+      <c r="M192">
         <v>1030</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2593339191</v>
       </c>
@@ -8031,23 +8615,26 @@
       <c r="G193">
         <v>2299825</v>
       </c>
-      <c r="H193">
-        <v>69.3</v>
-      </c>
-      <c r="I193">
+      <c r="H193" s="2">
+        <v>68.421052631578902</v>
+      </c>
+      <c r="I193" s="2">
+        <v>0</v>
+      </c>
+      <c r="J193">
         <v>0.4143</v>
       </c>
-      <c r="J193">
+      <c r="K193">
         <v>0.23092499999999999</v>
       </c>
-      <c r="K193">
+      <c r="L193">
         <v>1.65</v>
       </c>
-      <c r="L193">
+      <c r="M193">
         <v>2043</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2593339192</v>
       </c>
@@ -8069,25 +8656,28 @@
       <c r="G194">
         <v>1077715</v>
       </c>
-      <c r="H194">
+      <c r="H194" s="2">
         <v>50</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="2">
+        <v>0</v>
+      </c>
+      <c r="J194">
         <v>0.43290000000000001</v>
       </c>
-      <c r="J194">
+      <c r="K194">
         <v>0.20827499999999999</v>
       </c>
-      <c r="K194">
+      <c r="L194">
         <v>1.653</v>
       </c>
-      <c r="L194">
+      <c r="M194">
         <v>1104</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L194">
-    <sortState ref="A2:L194">
+  <autoFilter ref="A1:M194" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:M194">
       <sortCondition ref="A1:A194"/>
     </sortState>
   </autoFilter>
